--- a/Data_clean/MCAS/Estados_US/Edos_USA_2015/NEVADA_2015.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2015/NEVADA_2015.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D1490"/>
+  <dimension ref="A1:D1484"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -360,22 +360,22 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Estado de Origen</t>
+          <t>mx_state</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Municipio Origen</t>
+          <t>mx_municipality</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Número de Matrículas</t>
+          <t>n_matriculas</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Porcentaje de Matrículas</t>
+          <t>pct_matriculas</t>
         </is>
       </c>
     </row>
@@ -452,7 +452,7 @@
     <row r="7">
       <c r="B7" t="inlineStr">
         <is>
-          <t>Pabellón de Arteaga</t>
+          <t>Pabellón De Arteaga</t>
         </is>
       </c>
       <c r="C7">
@@ -465,7 +465,7 @@
     <row r="8">
       <c r="B8" t="inlineStr">
         <is>
-          <t>Rincón de Romos</t>
+          <t>Rincón De Romos</t>
         </is>
       </c>
       <c r="C8">
@@ -478,20 +478,20 @@
     <row r="9">
       <c r="B9" t="inlineStr">
         <is>
-          <t>San Francisco de los Romo</t>
+          <t>San Francisco De Los Romo</t>
         </is>
       </c>
       <c r="C9">
         <v>2</v>
       </c>
       <c r="D9">
-        <v>9.888262632255513E-05</v>
+        <v>9.888262632255512E-05</v>
       </c>
     </row>
     <row r="10">
       <c r="B10" t="inlineStr">
         <is>
-          <t>San José de Gracia</t>
+          <t>San José De Gracia</t>
         </is>
       </c>
       <c r="C10">
@@ -511,7 +511,7 @@
         <v>2</v>
       </c>
       <c r="D11">
-        <v>9.888262632255513E-05</v>
+        <v>9.888262632255512E-05</v>
       </c>
     </row>
     <row r="12">
@@ -561,7 +561,7 @@
     <row r="15">
       <c r="B15" t="inlineStr">
         <is>
-          <t>Playas de Rosarito</t>
+          <t>Playas De Rosarito</t>
         </is>
       </c>
       <c r="C15">
@@ -695,7 +695,7 @@
         <v>20</v>
       </c>
       <c r="D24">
-        <v>0.0009888262632255513</v>
+        <v>0.0009888262632255511</v>
       </c>
     </row>
     <row r="25">
@@ -747,7 +747,7 @@
         <v>2</v>
       </c>
       <c r="D28">
-        <v>9.888262632255513E-05</v>
+        <v>9.888262632255512E-05</v>
       </c>
     </row>
     <row r="29">
@@ -760,7 +760,7 @@
         <v>2</v>
       </c>
       <c r="D29">
-        <v>9.888262632255513E-05</v>
+        <v>9.888262632255512E-05</v>
       </c>
     </row>
     <row r="30">
@@ -953,7 +953,7 @@
     <row r="44">
       <c r="B44" t="inlineStr">
         <is>
-          <t>Comitán de Domínguez</t>
+          <t>Comitán De Domínguez</t>
         </is>
       </c>
       <c r="C44">
@@ -986,7 +986,7 @@
         <v>2</v>
       </c>
       <c r="D46">
-        <v>9.888262632255513E-05</v>
+        <v>9.888262632255512E-05</v>
       </c>
     </row>
     <row r="47">
@@ -999,7 +999,7 @@
         <v>2</v>
       </c>
       <c r="D47">
-        <v>9.888262632255513E-05</v>
+        <v>9.888262632255512E-05</v>
       </c>
     </row>
     <row r="48">
@@ -1090,7 +1090,7 @@
         <v>2</v>
       </c>
       <c r="D54">
-        <v>9.888262632255513E-05</v>
+        <v>9.888262632255512E-05</v>
       </c>
     </row>
     <row r="55">
@@ -1103,7 +1103,7 @@
         <v>2</v>
       </c>
       <c r="D55">
-        <v>9.888262632255513E-05</v>
+        <v>9.888262632255512E-05</v>
       </c>
     </row>
     <row r="56">
@@ -1148,7 +1148,7 @@
     <row r="59">
       <c r="B59" t="inlineStr">
         <is>
-          <t>Marqués de Comillas</t>
+          <t>Marqués De Comillas</t>
         </is>
       </c>
       <c r="C59">
@@ -1187,14 +1187,14 @@
     <row r="62">
       <c r="B62" t="inlineStr">
         <is>
-          <t>Ocozocoautla de Espinosa</t>
+          <t>Ocozocoautla De Espinosa</t>
         </is>
       </c>
       <c r="C62">
         <v>2</v>
       </c>
       <c r="D62">
-        <v>9.888262632255513E-05</v>
+        <v>9.888262632255512E-05</v>
       </c>
     </row>
     <row r="63">
@@ -1259,7 +1259,7 @@
         <v>2</v>
       </c>
       <c r="D67">
-        <v>9.888262632255513E-05</v>
+        <v>9.888262632255512E-05</v>
       </c>
     </row>
     <row r="68">
@@ -1272,7 +1272,7 @@
         <v>2</v>
       </c>
       <c r="D68">
-        <v>9.888262632255513E-05</v>
+        <v>9.888262632255512E-05</v>
       </c>
     </row>
     <row r="69">
@@ -1363,7 +1363,7 @@
         <v>2</v>
       </c>
       <c r="D75">
-        <v>9.888262632255513E-05</v>
+        <v>9.888262632255512E-05</v>
       </c>
     </row>
     <row r="76">
@@ -1415,7 +1415,7 @@
         <v>2</v>
       </c>
       <c r="D79">
-        <v>9.888262632255513E-05</v>
+        <v>9.888262632255512E-05</v>
       </c>
     </row>
     <row r="80">
@@ -1485,7 +1485,7 @@
         <v>2</v>
       </c>
       <c r="D84">
-        <v>9.888262632255513E-05</v>
+        <v>9.888262632255512E-05</v>
       </c>
     </row>
     <row r="85">
@@ -1550,7 +1550,7 @@
         <v>2</v>
       </c>
       <c r="D89">
-        <v>9.888262632255513E-05</v>
+        <v>9.888262632255512E-05</v>
       </c>
     </row>
     <row r="90">
@@ -1719,7 +1719,7 @@
         <v>2</v>
       </c>
       <c r="D102">
-        <v>9.888262632255513E-05</v>
+        <v>9.888262632255512E-05</v>
       </c>
     </row>
     <row r="103">
@@ -1745,13 +1745,13 @@
         <v>2</v>
       </c>
       <c r="D104">
-        <v>9.888262632255513E-05</v>
+        <v>9.888262632255512E-05</v>
       </c>
     </row>
     <row r="105">
       <c r="B105" t="inlineStr">
         <is>
-          <t>Guadalupe y Calvo</t>
+          <t>Guadalupe Y Calvo</t>
         </is>
       </c>
       <c r="C105">
@@ -1790,7 +1790,7 @@
     <row r="108">
       <c r="B108" t="inlineStr">
         <is>
-          <t>Hidalgo del Parral</t>
+          <t>Hidalgo Del Parral</t>
         </is>
       </c>
       <c r="C108">
@@ -1862,7 +1862,7 @@
         <v>2</v>
       </c>
       <c r="D113">
-        <v>9.888262632255513E-05</v>
+        <v>9.888262632255512E-05</v>
       </c>
     </row>
     <row r="114">
@@ -1979,7 +1979,7 @@
         <v>2</v>
       </c>
       <c r="D122">
-        <v>9.888262632255513E-05</v>
+        <v>9.888262632255512E-05</v>
       </c>
     </row>
     <row r="123">
@@ -2018,7 +2018,7 @@
         <v>2</v>
       </c>
       <c r="D125">
-        <v>9.888262632255513E-05</v>
+        <v>9.888262632255512E-05</v>
       </c>
     </row>
     <row r="126">
@@ -2044,33 +2044,33 @@
         <v>2</v>
       </c>
       <c r="D127">
-        <v>9.888262632255513E-05</v>
+        <v>9.888262632255512E-05</v>
       </c>
     </row>
     <row r="128">
       <c r="B128" t="inlineStr">
         <is>
-          <t>San Francisco de Borja</t>
+          <t>San Francisco De Borja</t>
         </is>
       </c>
       <c r="C128">
         <v>2</v>
       </c>
       <c r="D128">
-        <v>9.888262632255513E-05</v>
+        <v>9.888262632255512E-05</v>
       </c>
     </row>
     <row r="129">
       <c r="B129" t="inlineStr">
         <is>
-          <t>San Francisco del Oro</t>
+          <t>San Francisco Del Oro</t>
         </is>
       </c>
       <c r="C129">
         <v>2</v>
       </c>
       <c r="D129">
-        <v>9.888262632255513E-05</v>
+        <v>9.888262632255512E-05</v>
       </c>
     </row>
     <row r="130">
@@ -2154,7 +2154,7 @@
     <row r="136">
       <c r="B136" t="inlineStr">
         <is>
-          <t>Valle de Zaragoza</t>
+          <t>Valle De Zaragoza</t>
         </is>
       </c>
       <c r="C136">
@@ -2218,7 +2218,7 @@
         <v>2</v>
       </c>
       <c r="D140">
-        <v>9.888262632255513E-05</v>
+        <v>9.888262632255512E-05</v>
       </c>
     </row>
     <row r="141">
@@ -2270,7 +2270,7 @@
         <v>2</v>
       </c>
       <c r="D144">
-        <v>9.888262632255513E-05</v>
+        <v>9.888262632255512E-05</v>
       </c>
     </row>
     <row r="145">
@@ -2335,7 +2335,7 @@
         <v>2</v>
       </c>
       <c r="D149">
-        <v>9.888262632255513E-05</v>
+        <v>9.888262632255512E-05</v>
       </c>
     </row>
     <row r="150">
@@ -2361,7 +2361,7 @@
         <v>2</v>
       </c>
       <c r="D151">
-        <v>9.888262632255513E-05</v>
+        <v>9.888262632255512E-05</v>
       </c>
     </row>
     <row r="152">
@@ -2515,7 +2515,7 @@
     <row r="163">
       <c r="B163" t="inlineStr">
         <is>
-          <t>Villa de Álvarez</t>
+          <t>Villa De Álvarez</t>
         </is>
       </c>
       <c r="C163">
@@ -2541,7 +2541,7 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>Ciudad de México</t>
+          <t>Ciudad De México</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
@@ -2598,7 +2598,7 @@
     <row r="169">
       <c r="B169" t="inlineStr">
         <is>
-          <t>Cuajimalpa de Morelos</t>
+          <t>Cuajimalpa De Morelos</t>
         </is>
       </c>
       <c r="C169">
@@ -2798,7 +2798,7 @@
     <row r="184">
       <c r="B184" t="inlineStr">
         <is>
-          <t>Coneto de Comonfort</t>
+          <t>Coneto De Comonfort</t>
         </is>
       </c>
       <c r="C184">
@@ -2961,7 +2961,7 @@
         <v>2</v>
       </c>
       <c r="D196">
-        <v>9.888262632255513E-05</v>
+        <v>9.888262632255512E-05</v>
       </c>
     </row>
     <row r="197">
@@ -2980,7 +2980,7 @@
     <row r="198">
       <c r="B198" t="inlineStr">
         <is>
-          <t>Nombre de Dios</t>
+          <t>Nombre De Dios</t>
         </is>
       </c>
       <c r="C198">
@@ -3013,7 +3013,7 @@
         <v>19</v>
       </c>
       <c r="D200">
-        <v>0.0009393849500642737</v>
+        <v>0.0009393849500642736</v>
       </c>
     </row>
     <row r="201">
@@ -3032,14 +3032,14 @@
     <row r="202">
       <c r="B202" t="inlineStr">
         <is>
-          <t>Pánuco de Coronado</t>
+          <t>Pánuco De Coronado</t>
         </is>
       </c>
       <c r="C202">
         <v>2</v>
       </c>
       <c r="D202">
-        <v>9.888262632255513E-05</v>
+        <v>9.888262632255512E-05</v>
       </c>
     </row>
     <row r="203">
@@ -3123,7 +3123,7 @@
     <row r="209">
       <c r="B209" t="inlineStr">
         <is>
-          <t>San Juan del Río</t>
+          <t>San Juan Del Río</t>
         </is>
       </c>
       <c r="C209">
@@ -3136,7 +3136,7 @@
     <row r="210">
       <c r="B210" t="inlineStr">
         <is>
-          <t>San Luis del Cordero</t>
+          <t>San Luis Del Cordero</t>
         </is>
       </c>
       <c r="C210">
@@ -3149,7 +3149,7 @@
     <row r="211">
       <c r="B211" t="inlineStr">
         <is>
-          <t>San Pedro del Gallo</t>
+          <t>San Pedro Del Gallo</t>
         </is>
       </c>
       <c r="C211">
@@ -3169,7 +3169,7 @@
         <v>2</v>
       </c>
       <c r="D212">
-        <v>9.888262632255513E-05</v>
+        <v>9.888262632255512E-05</v>
       </c>
     </row>
     <row r="213">
@@ -3266,12 +3266,12 @@
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>Estado de México</t>
+          <t>Estado De México</t>
         </is>
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>Acambay de Ruíz Castañeda</t>
+          <t>Acambay De Ruíz Castañeda</t>
         </is>
       </c>
       <c r="C220">
@@ -3291,7 +3291,7 @@
         <v>2</v>
       </c>
       <c r="D221">
-        <v>9.888262632255513E-05</v>
+        <v>9.888262632255512E-05</v>
       </c>
     </row>
     <row r="222">
@@ -3304,26 +3304,26 @@
         <v>2</v>
       </c>
       <c r="D222">
-        <v>9.888262632255513E-05</v>
+        <v>9.888262632255512E-05</v>
       </c>
     </row>
     <row r="223">
       <c r="B223" t="inlineStr">
         <is>
-          <t>Almoloya de Alquisiras</t>
+          <t>Almoloya De Alquisiras</t>
         </is>
       </c>
       <c r="C223">
         <v>2</v>
       </c>
       <c r="D223">
-        <v>9.888262632255513E-05</v>
+        <v>9.888262632255512E-05</v>
       </c>
     </row>
     <row r="224">
       <c r="B224" t="inlineStr">
         <is>
-          <t>Almoloya de Juárez</t>
+          <t>Almoloya De Juárez</t>
         </is>
       </c>
       <c r="C224">
@@ -3336,7 +3336,7 @@
     <row r="225">
       <c r="B225" t="inlineStr">
         <is>
-          <t>Almoloya del Río</t>
+          <t>Almoloya Del Río</t>
         </is>
       </c>
       <c r="C225">
@@ -3414,7 +3414,7 @@
     <row r="231">
       <c r="B231" t="inlineStr">
         <is>
-          <t>Atizapán de Zaragoza</t>
+          <t>Atizapán De Zaragoza</t>
         </is>
       </c>
       <c r="C231">
@@ -3453,7 +3453,7 @@
     <row r="234">
       <c r="B234" t="inlineStr">
         <is>
-          <t>Chapa de Mota</t>
+          <t>Chapa De Mota</t>
         </is>
       </c>
       <c r="C234">
@@ -3505,7 +3505,7 @@
     <row r="238">
       <c r="B238" t="inlineStr">
         <is>
-          <t>Coacalco de Berriozábal</t>
+          <t>Coacalco De Berriozábal</t>
         </is>
       </c>
       <c r="C238">
@@ -3583,7 +3583,7 @@
     <row r="244">
       <c r="B244" t="inlineStr">
         <is>
-          <t>Ecatepec de Morelos</t>
+          <t>Ecatepec De Morelos</t>
         </is>
       </c>
       <c r="C244">
@@ -3648,7 +3648,7 @@
     <row r="249">
       <c r="B249" t="inlineStr">
         <is>
-          <t>Ixtapan de la Sal</t>
+          <t>Ixtapan De La Sal</t>
         </is>
       </c>
       <c r="C249">
@@ -3661,14 +3661,14 @@
     <row r="250">
       <c r="B250" t="inlineStr">
         <is>
-          <t>Ixtapan del Oro</t>
+          <t>Ixtapan Del Oro</t>
         </is>
       </c>
       <c r="C250">
         <v>2</v>
       </c>
       <c r="D250">
-        <v>9.888262632255513E-05</v>
+        <v>9.888262632255512E-05</v>
       </c>
     </row>
     <row r="251">
@@ -3707,7 +3707,7 @@
         <v>2</v>
       </c>
       <c r="D253">
-        <v>9.888262632255513E-05</v>
+        <v>9.888262632255512E-05</v>
       </c>
     </row>
     <row r="254">
@@ -3746,7 +3746,7 @@
         <v>2</v>
       </c>
       <c r="D256">
-        <v>9.888262632255513E-05</v>
+        <v>9.888262632255512E-05</v>
       </c>
     </row>
     <row r="257">
@@ -3830,7 +3830,7 @@
     <row r="263">
       <c r="B263" t="inlineStr">
         <is>
-          <t>Naucalpan de Juárez</t>
+          <t>Naucalpan De Juárez</t>
         </is>
       </c>
       <c r="C263">
@@ -3850,7 +3850,7 @@
         <v>2</v>
       </c>
       <c r="D264">
-        <v>9.888262632255513E-05</v>
+        <v>9.888262632255512E-05</v>
       </c>
     </row>
     <row r="265">
@@ -3902,7 +3902,7 @@
         <v>2</v>
       </c>
       <c r="D268">
-        <v>9.888262632255513E-05</v>
+        <v>9.888262632255512E-05</v>
       </c>
     </row>
     <row r="269">
@@ -3973,7 +3973,7 @@
     <row r="274">
       <c r="B274" t="inlineStr">
         <is>
-          <t>San Felipe del Progreso</t>
+          <t>San Felipe Del Progreso</t>
         </is>
       </c>
       <c r="C274">
@@ -3986,7 +3986,7 @@
     <row r="275">
       <c r="B275" t="inlineStr">
         <is>
-          <t>San Simón de Guerrero</t>
+          <t>San Simón De Guerrero</t>
         </is>
       </c>
       <c r="C275">
@@ -4116,7 +4116,7 @@
     <row r="285">
       <c r="B285" t="inlineStr">
         <is>
-          <t>Tenango del Valle</t>
+          <t>Tenango Del Valle</t>
         </is>
       </c>
       <c r="C285">
@@ -4214,13 +4214,13 @@
         <v>2</v>
       </c>
       <c r="D292">
-        <v>9.888262632255513E-05</v>
+        <v>9.888262632255512E-05</v>
       </c>
     </row>
     <row r="293">
       <c r="B293" t="inlineStr">
         <is>
-          <t>Tlalnepantla de Baz</t>
+          <t>Tlalnepantla De Baz</t>
         </is>
       </c>
       <c r="C293">
@@ -4266,7 +4266,7 @@
         <v>2</v>
       </c>
       <c r="D296">
-        <v>9.888262632255513E-05</v>
+        <v>9.888262632255512E-05</v>
       </c>
     </row>
     <row r="297">
@@ -4285,7 +4285,7 @@
     <row r="298">
       <c r="B298" t="inlineStr">
         <is>
-          <t>Valle de Bravo</t>
+          <t>Valle De Bravo</t>
         </is>
       </c>
       <c r="C298">
@@ -4298,7 +4298,7 @@
     <row r="299">
       <c r="B299" t="inlineStr">
         <is>
-          <t>Valle de Chalco Solidaridad</t>
+          <t>Valle De Chalco Solidaridad</t>
         </is>
       </c>
       <c r="C299">
@@ -4311,20 +4311,20 @@
     <row r="300">
       <c r="B300" t="inlineStr">
         <is>
-          <t>Villa de Allende</t>
+          <t>Villa De Allende</t>
         </is>
       </c>
       <c r="C300">
         <v>2</v>
       </c>
       <c r="D300">
-        <v>9.888262632255513E-05</v>
+        <v>9.888262632255512E-05</v>
       </c>
     </row>
     <row r="301">
       <c r="B301" t="inlineStr">
         <is>
-          <t>Villa del Carbón</t>
+          <t>Villa Del Carbón</t>
         </is>
       </c>
       <c r="C301">
@@ -4459,7 +4459,7 @@
     <row r="311">
       <c r="B311" t="inlineStr">
         <is>
-          <t>San Miguel de Allende</t>
+          <t>San Miguel De Allende</t>
         </is>
       </c>
       <c r="C311">
@@ -4472,7 +4472,7 @@
     <row r="312">
       <c r="B312" t="inlineStr">
         <is>
-          <t>Apaseo el Grande</t>
+          <t>Apaseo El Grande</t>
         </is>
       </c>
       <c r="C312">
@@ -4563,7 +4563,7 @@
     <row r="319">
       <c r="B319" t="inlineStr">
         <is>
-          <t>Dolores Hidalgo Cuna de la Independencia Nacional</t>
+          <t>Dolores Hidalgo Cuna De La Independencia Nacional</t>
         </is>
       </c>
       <c r="C319">
@@ -4615,7 +4615,7 @@
     <row r="323">
       <c r="B323" t="inlineStr">
         <is>
-          <t>Jaral del Progreso</t>
+          <t>Jaral Del Progreso</t>
         </is>
       </c>
       <c r="C323">
@@ -4706,7 +4706,7 @@
     <row r="330">
       <c r="B330" t="inlineStr">
         <is>
-          <t>Purísima del Rincón</t>
+          <t>Purísima Del Rincón</t>
         </is>
       </c>
       <c r="C330">
@@ -4758,7 +4758,7 @@
     <row r="334">
       <c r="B334" t="inlineStr">
         <is>
-          <t>San Diego de la Unión</t>
+          <t>San Diego De La Unión</t>
         </is>
       </c>
       <c r="C334">
@@ -4784,7 +4784,7 @@
     <row r="336">
       <c r="B336" t="inlineStr">
         <is>
-          <t>San Francisco del Rincón</t>
+          <t>San Francisco Del Rincón</t>
         </is>
       </c>
       <c r="C336">
@@ -4810,7 +4810,7 @@
     <row r="338">
       <c r="B338" t="inlineStr">
         <is>
-          <t>San Luis de la Paz</t>
+          <t>San Luis De La Paz</t>
         </is>
       </c>
       <c r="C338">
@@ -4836,7 +4836,7 @@
     <row r="340">
       <c r="B340" t="inlineStr">
         <is>
-          <t>Santa Cruz de Juventino Rosas</t>
+          <t>Santa Cruz De Juventino Rosas</t>
         </is>
       </c>
       <c r="C340">
@@ -4849,7 +4849,7 @@
     <row r="341">
       <c r="B341" t="inlineStr">
         <is>
-          <t>Silao de la Victoria</t>
+          <t>Silao De La Victoria</t>
         </is>
       </c>
       <c r="C341">
@@ -4914,7 +4914,7 @@
     <row r="346">
       <c r="B346" t="inlineStr">
         <is>
-          <t>Valle de Santiago</t>
+          <t>Valle De Santiago</t>
         </is>
       </c>
       <c r="C346">
@@ -4984,7 +4984,7 @@
       </c>
       <c r="B351" t="inlineStr">
         <is>
-          <t>Acapulco de Juárez</t>
+          <t>Acapulco De Juárez</t>
         </is>
       </c>
       <c r="C351">
@@ -5004,13 +5004,13 @@
         <v>2</v>
       </c>
       <c r="D352">
-        <v>9.888262632255513E-05</v>
+        <v>9.888262632255512E-05</v>
       </c>
     </row>
     <row r="353">
       <c r="B353" t="inlineStr">
         <is>
-          <t>Ajuchitlán del Progreso</t>
+          <t>Ajuchitlán Del Progreso</t>
         </is>
       </c>
       <c r="C353">
@@ -5023,7 +5023,7 @@
     <row r="354">
       <c r="B354" t="inlineStr">
         <is>
-          <t>Alcozauca de Guerrero</t>
+          <t>Alcozauca De Guerrero</t>
         </is>
       </c>
       <c r="C354">
@@ -5062,7 +5062,7 @@
     <row r="357">
       <c r="B357" t="inlineStr">
         <is>
-          <t>Atenango del Río</t>
+          <t>Atenango Del Río</t>
         </is>
       </c>
       <c r="C357">
@@ -5075,7 +5075,7 @@
     <row r="358">
       <c r="B358" t="inlineStr">
         <is>
-          <t>Atlamajalcingo del Monte</t>
+          <t>Atlamajalcingo Del Monte</t>
         </is>
       </c>
       <c r="C358">
@@ -5101,7 +5101,7 @@
     <row r="360">
       <c r="B360" t="inlineStr">
         <is>
-          <t>Atoyac de Álvarez</t>
+          <t>Atoyac De Álvarez</t>
         </is>
       </c>
       <c r="C360">
@@ -5114,7 +5114,7 @@
     <row r="361">
       <c r="B361" t="inlineStr">
         <is>
-          <t>Ayutla de los Libres</t>
+          <t>Ayutla De Los Libres</t>
         </is>
       </c>
       <c r="C361">
@@ -5153,7 +5153,7 @@
     <row r="364">
       <c r="B364" t="inlineStr">
         <is>
-          <t>Buenavista de Cuéllar</t>
+          <t>Buenavista De Cuéllar</t>
         </is>
       </c>
       <c r="C364">
@@ -5166,7 +5166,7 @@
     <row r="365">
       <c r="B365" t="inlineStr">
         <is>
-          <t>Chilapa de Álvarez</t>
+          <t>Chilapa De Álvarez</t>
         </is>
       </c>
       <c r="C365">
@@ -5179,7 +5179,7 @@
     <row r="366">
       <c r="B366" t="inlineStr">
         <is>
-          <t>Chilpancingo de los Bravo</t>
+          <t>Chilpancingo De Los Bravo</t>
         </is>
       </c>
       <c r="C366">
@@ -5192,7 +5192,7 @@
     <row r="367">
       <c r="B367" t="inlineStr">
         <is>
-          <t>Coahuayutla de José María Izazaga</t>
+          <t>Coahuayutla De José María Izazaga</t>
         </is>
       </c>
       <c r="C367">
@@ -5257,7 +5257,7 @@
     <row r="372">
       <c r="B372" t="inlineStr">
         <is>
-          <t>Coyuca de Benítez</t>
+          <t>Coyuca De Benítez</t>
         </is>
       </c>
       <c r="C372">
@@ -5270,7 +5270,7 @@
     <row r="373">
       <c r="B373" t="inlineStr">
         <is>
-          <t>Coyuca de Catalán</t>
+          <t>Coyuca De Catalán</t>
         </is>
       </c>
       <c r="C373">
@@ -5322,7 +5322,7 @@
     <row r="377">
       <c r="B377" t="inlineStr">
         <is>
-          <t>Cuetzala del Progreso</t>
+          <t>Cuetzala Del Progreso</t>
         </is>
       </c>
       <c r="C377">
@@ -5335,7 +5335,7 @@
     <row r="378">
       <c r="B378" t="inlineStr">
         <is>
-          <t>Cutzamala de Pinzón</t>
+          <t>Cutzamala De Pinzón</t>
         </is>
       </c>
       <c r="C378">
@@ -5400,7 +5400,7 @@
     <row r="383">
       <c r="B383" t="inlineStr">
         <is>
-          <t>Huitzuco de los Figueroa</t>
+          <t>Huitzuco De Los Figueroa</t>
         </is>
       </c>
       <c r="C383">
@@ -5413,7 +5413,7 @@
     <row r="384">
       <c r="B384" t="inlineStr">
         <is>
-          <t>Iguala de la Independencia</t>
+          <t>Iguala De La Independencia</t>
         </is>
       </c>
       <c r="C384">
@@ -5439,14 +5439,14 @@
     <row r="386">
       <c r="B386" t="inlineStr">
         <is>
-          <t>Ixcateopan de Cuauhtémoc</t>
+          <t>Ixcateopan De Cuauhtémoc</t>
         </is>
       </c>
       <c r="C386">
         <v>2</v>
       </c>
       <c r="D386">
-        <v>9.888262632255513E-05</v>
+        <v>9.888262632255512E-05</v>
       </c>
     </row>
     <row r="387">
@@ -5478,7 +5478,7 @@
     <row r="389">
       <c r="B389" t="inlineStr">
         <is>
-          <t>La Unión de Isidoro Montes de Oca</t>
+          <t>La Unión De Isidoro Montes De Oca</t>
         </is>
       </c>
       <c r="C389">
@@ -5660,14 +5660,14 @@
     <row r="403">
       <c r="B403" t="inlineStr">
         <is>
-          <t>Taxco de Alarcón</t>
+          <t>Taxco De Alarcón</t>
         </is>
       </c>
       <c r="C403">
         <v>20</v>
       </c>
       <c r="D403">
-        <v>0.0009888262632255513</v>
+        <v>0.0009888262632255511</v>
       </c>
     </row>
     <row r="404">
@@ -5686,7 +5686,7 @@
     <row r="405">
       <c r="B405" t="inlineStr">
         <is>
-          <t>Técpan de Galeana</t>
+          <t>Técpan De Galeana</t>
         </is>
       </c>
       <c r="C405">
@@ -5712,7 +5712,7 @@
     <row r="407">
       <c r="B407" t="inlineStr">
         <is>
-          <t>Tepecoacuilco de Trujano</t>
+          <t>Tepecoacuilco De Trujano</t>
         </is>
       </c>
       <c r="C407">
@@ -5764,7 +5764,7 @@
     <row r="411">
       <c r="B411" t="inlineStr">
         <is>
-          <t>Tlapa de Comonfort</t>
+          <t>Tlapa De Comonfort</t>
         </is>
       </c>
       <c r="C411">
@@ -5810,7 +5810,7 @@
         <v>2</v>
       </c>
       <c r="D414">
-        <v>9.888262632255513E-05</v>
+        <v>9.888262632255512E-05</v>
       </c>
     </row>
     <row r="415">
@@ -5893,7 +5893,7 @@
         <v>2</v>
       </c>
       <c r="D420">
-        <v>9.888262632255513E-05</v>
+        <v>9.888262632255512E-05</v>
       </c>
     </row>
     <row r="421">
@@ -5912,14 +5912,14 @@
     <row r="422">
       <c r="B422" t="inlineStr">
         <is>
-          <t>Agua Blanca de Iturbide</t>
+          <t>Agua Blanca De Iturbide</t>
         </is>
       </c>
       <c r="C422">
         <v>2</v>
       </c>
       <c r="D422">
-        <v>9.888262632255513E-05</v>
+        <v>9.888262632255512E-05</v>
       </c>
     </row>
     <row r="423">
@@ -5932,7 +5932,7 @@
         <v>2</v>
       </c>
       <c r="D423">
-        <v>9.888262632255513E-05</v>
+        <v>9.888262632255512E-05</v>
       </c>
     </row>
     <row r="424">
@@ -5990,7 +5990,7 @@
     <row r="428">
       <c r="B428" t="inlineStr">
         <is>
-          <t>Atotonilco de Tula</t>
+          <t>Atotonilco De Tula</t>
         </is>
       </c>
       <c r="C428">
@@ -6003,7 +6003,7 @@
     <row r="429">
       <c r="B429" t="inlineStr">
         <is>
-          <t>Atotonilco el Grande</t>
+          <t>Atotonilco El Grande</t>
         </is>
       </c>
       <c r="C429">
@@ -6049,7 +6049,7 @@
         <v>2</v>
       </c>
       <c r="D432">
-        <v>9.888262632255513E-05</v>
+        <v>9.888262632255512E-05</v>
       </c>
     </row>
     <row r="433">
@@ -6081,7 +6081,7 @@
     <row r="435">
       <c r="B435" t="inlineStr">
         <is>
-          <t>Cuautepec de Hinojosa</t>
+          <t>Cuautepec De Hinojosa</t>
         </is>
       </c>
       <c r="C435">
@@ -6146,7 +6146,7 @@
     <row r="440">
       <c r="B440" t="inlineStr">
         <is>
-          <t>Huasca de Ocampo</t>
+          <t>Huasca De Ocampo</t>
         </is>
       </c>
       <c r="C440">
@@ -6172,14 +6172,14 @@
     <row r="442">
       <c r="B442" t="inlineStr">
         <is>
-          <t>Huejutla de Reyes</t>
+          <t>Huejutla De Reyes</t>
         </is>
       </c>
       <c r="C442">
         <v>2</v>
       </c>
       <c r="D442">
-        <v>9.888262632255513E-05</v>
+        <v>9.888262632255512E-05</v>
       </c>
     </row>
     <row r="443">
@@ -6211,7 +6211,7 @@
     <row r="445">
       <c r="B445" t="inlineStr">
         <is>
-          <t>Jacala de Ledezma</t>
+          <t>Jacala De Ledezma</t>
         </is>
       </c>
       <c r="C445">
@@ -6244,7 +6244,7 @@
         <v>2</v>
       </c>
       <c r="D447">
-        <v>9.888262632255513E-05</v>
+        <v>9.888262632255512E-05</v>
       </c>
     </row>
     <row r="448">
@@ -6263,20 +6263,20 @@
     <row r="449">
       <c r="B449" t="inlineStr">
         <is>
-          <t>Mineral del Chico</t>
+          <t>Mineral Del Chico</t>
         </is>
       </c>
       <c r="C449">
         <v>2</v>
       </c>
       <c r="D449">
-        <v>9.888262632255513E-05</v>
+        <v>9.888262632255512E-05</v>
       </c>
     </row>
     <row r="450">
       <c r="B450" t="inlineStr">
         <is>
-          <t>Mineral del Monte</t>
+          <t>Mineral Del Monte</t>
         </is>
       </c>
       <c r="C450">
@@ -6289,7 +6289,7 @@
     <row r="451">
       <c r="B451" t="inlineStr">
         <is>
-          <t>Mixquiahuala de Juárez</t>
+          <t>Mixquiahuala De Juárez</t>
         </is>
       </c>
       <c r="C451">
@@ -6302,7 +6302,7 @@
     <row r="452">
       <c r="B452" t="inlineStr">
         <is>
-          <t>Molango de Escamilla</t>
+          <t>Molango De Escamilla</t>
         </is>
       </c>
       <c r="C452">
@@ -6328,7 +6328,7 @@
     <row r="454">
       <c r="B454" t="inlineStr">
         <is>
-          <t>Nopala de Villagrán</t>
+          <t>Nopala De Villagrán</t>
         </is>
       </c>
       <c r="C454">
@@ -6341,7 +6341,7 @@
     <row r="455">
       <c r="B455" t="inlineStr">
         <is>
-          <t>Omitlán de Juárez</t>
+          <t>Omitlán De Juárez</t>
         </is>
       </c>
       <c r="C455">
@@ -6354,7 +6354,7 @@
     <row r="456">
       <c r="B456" t="inlineStr">
         <is>
-          <t>Pachuca de Soto</t>
+          <t>Pachuca De Soto</t>
         </is>
       </c>
       <c r="C456">
@@ -6374,13 +6374,13 @@
         <v>2</v>
       </c>
       <c r="D457">
-        <v>9.888262632255513E-05</v>
+        <v>9.888262632255512E-05</v>
       </c>
     </row>
     <row r="458">
       <c r="B458" t="inlineStr">
         <is>
-          <t>Progreso de Obregón</t>
+          <t>Progreso De Obregón</t>
         </is>
       </c>
       <c r="C458">
@@ -6445,7 +6445,7 @@
     <row r="463">
       <c r="B463" t="inlineStr">
         <is>
-          <t>Santiago de Anaya</t>
+          <t>Santiago De Anaya</t>
         </is>
       </c>
       <c r="C463">
@@ -6478,7 +6478,7 @@
         <v>2</v>
       </c>
       <c r="D465">
-        <v>9.888262632255513E-05</v>
+        <v>9.888262632255512E-05</v>
       </c>
     </row>
     <row r="466">
@@ -6497,7 +6497,7 @@
     <row r="467">
       <c r="B467" t="inlineStr">
         <is>
-          <t>Tenango de Doria</t>
+          <t>Tenango De Doria</t>
         </is>
       </c>
       <c r="C467">
@@ -6523,7 +6523,7 @@
     <row r="469">
       <c r="B469" t="inlineStr">
         <is>
-          <t>Tepehuacán de Guerrero</t>
+          <t>Tepehuacán De Guerrero</t>
         </is>
       </c>
       <c r="C469">
@@ -6536,7 +6536,7 @@
     <row r="470">
       <c r="B470" t="inlineStr">
         <is>
-          <t>Tepeji del Río de Ocampo</t>
+          <t>Tepeji Del Río De Ocampo</t>
         </is>
       </c>
       <c r="C470">
@@ -6562,7 +6562,7 @@
     <row r="472">
       <c r="B472" t="inlineStr">
         <is>
-          <t>Tezontepec de Aldama</t>
+          <t>Tezontepec De Aldama</t>
         </is>
       </c>
       <c r="C472">
@@ -6666,7 +6666,7 @@
     <row r="480">
       <c r="B480" t="inlineStr">
         <is>
-          <t>Tula de Allende</t>
+          <t>Tula De Allende</t>
         </is>
       </c>
       <c r="C480">
@@ -6679,7 +6679,7 @@
     <row r="481">
       <c r="B481" t="inlineStr">
         <is>
-          <t>Tulancingo de Bravo</t>
+          <t>Tulancingo De Bravo</t>
         </is>
       </c>
       <c r="C481">
@@ -6692,14 +6692,14 @@
     <row r="482">
       <c r="B482" t="inlineStr">
         <is>
-          <t>Villa de Tezontepec</t>
+          <t>Villa De Tezontepec</t>
         </is>
       </c>
       <c r="C482">
         <v>2</v>
       </c>
       <c r="D482">
-        <v>9.888262632255513E-05</v>
+        <v>9.888262632255512E-05</v>
       </c>
     </row>
     <row r="483">
@@ -6731,7 +6731,7 @@
     <row r="485">
       <c r="B485" t="inlineStr">
         <is>
-          <t>Zacualtipán de Ángeles</t>
+          <t>Zacualtipán De Ángeles</t>
         </is>
       </c>
       <c r="C485">
@@ -6744,7 +6744,7 @@
     <row r="486">
       <c r="B486" t="inlineStr">
         <is>
-          <t>Zapotlán de Juárez</t>
+          <t>Zapotlán De Juárez</t>
         </is>
       </c>
       <c r="C486">
@@ -6814,7 +6814,7 @@
     <row r="491">
       <c r="B491" t="inlineStr">
         <is>
-          <t>Acatlán de Juárez</t>
+          <t>Acatlán De Juárez</t>
         </is>
       </c>
       <c r="C491">
@@ -6827,7 +6827,7 @@
     <row r="492">
       <c r="B492" t="inlineStr">
         <is>
-          <t>Ahualulco de Mercado</t>
+          <t>Ahualulco De Mercado</t>
         </is>
       </c>
       <c r="C492">
@@ -6892,7 +6892,7 @@
     <row r="497">
       <c r="B497" t="inlineStr">
         <is>
-          <t>Atemajac de Brizuela</t>
+          <t>Atemajac De Brizuela</t>
         </is>
       </c>
       <c r="C497">
@@ -6918,7 +6918,7 @@
     <row r="499">
       <c r="B499" t="inlineStr">
         <is>
-          <t>Atotonilco el Alto</t>
+          <t>Atotonilco El Alto</t>
         </is>
       </c>
       <c r="C499">
@@ -6944,7 +6944,7 @@
     <row r="501">
       <c r="B501" t="inlineStr">
         <is>
-          <t>Autlán de Navarro</t>
+          <t>Autlán De Navarro</t>
         </is>
       </c>
       <c r="C501">
@@ -7022,7 +7022,7 @@
     <row r="507">
       <c r="B507" t="inlineStr">
         <is>
-          <t>Cañadas de Obregón</t>
+          <t>Cañadas De Obregón</t>
         </is>
       </c>
       <c r="C507">
@@ -7081,7 +7081,7 @@
         <v>20</v>
       </c>
       <c r="D511">
-        <v>0.0009888262632255513</v>
+        <v>0.0009888262632255511</v>
       </c>
     </row>
     <row r="512">
@@ -7094,7 +7094,7 @@
         <v>19</v>
       </c>
       <c r="D512">
-        <v>0.0009393849500642737</v>
+        <v>0.0009393849500642736</v>
       </c>
     </row>
     <row r="513">
@@ -7113,7 +7113,7 @@
     <row r="514">
       <c r="B514" t="inlineStr">
         <is>
-          <t>Concepción de Buenos Aires</t>
+          <t>Concepción De Buenos Aires</t>
         </is>
       </c>
       <c r="C514">
@@ -7126,7 +7126,7 @@
     <row r="515">
       <c r="B515" t="inlineStr">
         <is>
-          <t>Cuautitlán de García Barragán</t>
+          <t>Cuautitlán De García Barragán</t>
         </is>
       </c>
       <c r="C515">
@@ -7146,7 +7146,7 @@
         <v>2</v>
       </c>
       <c r="D516">
-        <v>9.888262632255513E-05</v>
+        <v>9.888262632255512E-05</v>
       </c>
     </row>
     <row r="517">
@@ -7185,7 +7185,7 @@
         <v>2</v>
       </c>
       <c r="D519">
-        <v>9.888262632255513E-05</v>
+        <v>9.888262632255512E-05</v>
       </c>
     </row>
     <row r="520">
@@ -7243,7 +7243,7 @@
     <row r="524">
       <c r="B524" t="inlineStr">
         <is>
-          <t>Encarnación de Díaz</t>
+          <t>Encarnación De Díaz</t>
         </is>
       </c>
       <c r="C524">
@@ -7334,7 +7334,7 @@
     <row r="531">
       <c r="B531" t="inlineStr">
         <is>
-          <t>Huejuquilla el Alto</t>
+          <t>Huejuquilla El Alto</t>
         </is>
       </c>
       <c r="C531">
@@ -7347,7 +7347,7 @@
     <row r="532">
       <c r="B532" t="inlineStr">
         <is>
-          <t>Ixtlahuacán de los Membrillos</t>
+          <t>Ixtlahuacán De Los Membrillos</t>
         </is>
       </c>
       <c r="C532">
@@ -7360,7 +7360,7 @@
     <row r="533">
       <c r="B533" t="inlineStr">
         <is>
-          <t>Ixtlahuacán del Río</t>
+          <t>Ixtlahuacán Del Río</t>
         </is>
       </c>
       <c r="C533">
@@ -7412,7 +7412,7 @@
     <row r="537">
       <c r="B537" t="inlineStr">
         <is>
-          <t>Jilotlán de los Dolores</t>
+          <t>Jilotlán De Los Dolores</t>
         </is>
       </c>
       <c r="C537">
@@ -7445,7 +7445,7 @@
         <v>2</v>
       </c>
       <c r="D539">
-        <v>9.888262632255513E-05</v>
+        <v>9.888262632255512E-05</v>
       </c>
     </row>
     <row r="540">
@@ -7490,7 +7490,7 @@
     <row r="543">
       <c r="B543" t="inlineStr">
         <is>
-          <t>La Manzanilla de la Paz</t>
+          <t>La Manzanilla De La Paz</t>
         </is>
       </c>
       <c r="C543">
@@ -7503,7 +7503,7 @@
     <row r="544">
       <c r="B544" t="inlineStr">
         <is>
-          <t>Lagos de Moreno</t>
+          <t>Lagos De Moreno</t>
         </is>
       </c>
       <c r="C544">
@@ -7607,14 +7607,14 @@
     <row r="552">
       <c r="B552" t="inlineStr">
         <is>
-          <t>Ojuelos de Jalisco</t>
+          <t>Ojuelos De Jalisco</t>
         </is>
       </c>
       <c r="C552">
         <v>2</v>
       </c>
       <c r="D552">
-        <v>9.888262632255513E-05</v>
+        <v>9.888262632255512E-05</v>
       </c>
     </row>
     <row r="553">
@@ -7627,7 +7627,7 @@
         <v>20</v>
       </c>
       <c r="D553">
-        <v>0.0009888262632255513</v>
+        <v>0.0009888262632255511</v>
       </c>
     </row>
     <row r="554">
@@ -7672,20 +7672,20 @@
     <row r="557">
       <c r="B557" t="inlineStr">
         <is>
-          <t>San Cristóbal de la Barranca</t>
+          <t>San Cristóbal De La Barranca</t>
         </is>
       </c>
       <c r="C557">
         <v>2</v>
       </c>
       <c r="D557">
-        <v>9.888262632255513E-05</v>
+        <v>9.888262632255512E-05</v>
       </c>
     </row>
     <row r="558">
       <c r="B558" t="inlineStr">
         <is>
-          <t>San Diego de Alejandría</t>
+          <t>San Diego De Alejandría</t>
         </is>
       </c>
       <c r="C558">
@@ -7711,7 +7711,7 @@
     <row r="560">
       <c r="B560" t="inlineStr">
         <is>
-          <t>San Juan de los Lagos</t>
+          <t>San Juan De Los Lagos</t>
         </is>
       </c>
       <c r="C560">
@@ -7724,7 +7724,7 @@
     <row r="561">
       <c r="B561" t="inlineStr">
         <is>
-          <t>San Juanito de Escobedo</t>
+          <t>San Juanito De Escobedo</t>
         </is>
       </c>
       <c r="C561">
@@ -7763,7 +7763,7 @@
     <row r="564">
       <c r="B564" t="inlineStr">
         <is>
-          <t>San Martín de Bolaños</t>
+          <t>San Martín De Bolaños</t>
         </is>
       </c>
       <c r="C564">
@@ -7789,7 +7789,7 @@
     <row r="566">
       <c r="B566" t="inlineStr">
         <is>
-          <t>San Miguel el Alto</t>
+          <t>San Miguel El Alto</t>
         </is>
       </c>
       <c r="C566">
@@ -7802,7 +7802,7 @@
     <row r="567">
       <c r="B567" t="inlineStr">
         <is>
-          <t>San Sebastián del Oeste</t>
+          <t>San Sebastián Del Oeste</t>
         </is>
       </c>
       <c r="C567">
@@ -7815,7 +7815,7 @@
     <row r="568">
       <c r="B568" t="inlineStr">
         <is>
-          <t>Santa María de los Ángeles</t>
+          <t>Santa María De Los Ángeles</t>
         </is>
       </c>
       <c r="C568">
@@ -7828,7 +7828,7 @@
     <row r="569">
       <c r="B569" t="inlineStr">
         <is>
-          <t>Santa María del Oro</t>
+          <t>Santa María Del Oro</t>
         </is>
       </c>
       <c r="C569">
@@ -7867,7 +7867,7 @@
     <row r="572">
       <c r="B572" t="inlineStr">
         <is>
-          <t>Talpa de Allende</t>
+          <t>Talpa De Allende</t>
         </is>
       </c>
       <c r="C572">
@@ -7880,7 +7880,7 @@
     <row r="573">
       <c r="B573" t="inlineStr">
         <is>
-          <t>Tamazula de Gordiano</t>
+          <t>Tamazula De Gordiano</t>
         </is>
       </c>
       <c r="C573">
@@ -7919,7 +7919,7 @@
     <row r="576">
       <c r="B576" t="inlineStr">
         <is>
-          <t>Techaluta de Montenegro</t>
+          <t>Techaluta De Montenegro</t>
         </is>
       </c>
       <c r="C576">
@@ -7952,7 +7952,7 @@
         <v>2</v>
       </c>
       <c r="D578">
-        <v>9.888262632255513E-05</v>
+        <v>9.888262632255512E-05</v>
       </c>
     </row>
     <row r="579">
@@ -7971,7 +7971,7 @@
     <row r="580">
       <c r="B580" t="inlineStr">
         <is>
-          <t>Teocuitatlán de Corona</t>
+          <t>Teocuitatlán De Corona</t>
         </is>
       </c>
       <c r="C580">
@@ -7984,7 +7984,7 @@
     <row r="581">
       <c r="B581" t="inlineStr">
         <is>
-          <t>Tepatitlán de Morelos</t>
+          <t>Tepatitlán De Morelos</t>
         </is>
       </c>
       <c r="C581">
@@ -8004,7 +8004,7 @@
         <v>19</v>
       </c>
       <c r="D582">
-        <v>0.0009393849500642737</v>
+        <v>0.0009393849500642736</v>
       </c>
     </row>
     <row r="583">
@@ -8023,7 +8023,7 @@
     <row r="584">
       <c r="B584" t="inlineStr">
         <is>
-          <t>Tizapán el Alto</t>
+          <t>Tizapán El Alto</t>
         </is>
       </c>
       <c r="C584">
@@ -8036,7 +8036,7 @@
     <row r="585">
       <c r="B585" t="inlineStr">
         <is>
-          <t>Tlajomulco de Zúñiga</t>
+          <t>Tlajomulco De Zúñiga</t>
         </is>
       </c>
       <c r="C585">
@@ -8192,7 +8192,7 @@
     <row r="597">
       <c r="B597" t="inlineStr">
         <is>
-          <t>Unión de San Antonio</t>
+          <t>Unión De San Antonio</t>
         </is>
       </c>
       <c r="C597">
@@ -8205,7 +8205,7 @@
     <row r="598">
       <c r="B598" t="inlineStr">
         <is>
-          <t>Unión de Tula</t>
+          <t>Unión De Tula</t>
         </is>
       </c>
       <c r="C598">
@@ -8218,7 +8218,7 @@
     <row r="599">
       <c r="B599" t="inlineStr">
         <is>
-          <t>Valle de Juárez</t>
+          <t>Valle De Juárez</t>
         </is>
       </c>
       <c r="C599">
@@ -8270,7 +8270,7 @@
     <row r="603">
       <c r="B603" t="inlineStr">
         <is>
-          <t>Yahualica de González Gallo</t>
+          <t>Yahualica De González Gallo</t>
         </is>
       </c>
       <c r="C603">
@@ -8283,7 +8283,7 @@
     <row r="604">
       <c r="B604" t="inlineStr">
         <is>
-          <t>Zacoalco de Torres</t>
+          <t>Zacoalco De Torres</t>
         </is>
       </c>
       <c r="C604">
@@ -8322,7 +8322,7 @@
     <row r="607">
       <c r="B607" t="inlineStr">
         <is>
-          <t>Zapotitlán de Vadillo</t>
+          <t>Zapotitlán De Vadillo</t>
         </is>
       </c>
       <c r="C607">
@@ -8335,7 +8335,7 @@
     <row r="608">
       <c r="B608" t="inlineStr">
         <is>
-          <t>Zapotlán del Rey</t>
+          <t>Zapotlán Del Rey</t>
         </is>
       </c>
       <c r="C608">
@@ -8348,7 +8348,7 @@
     <row r="609">
       <c r="B609" t="inlineStr">
         <is>
-          <t>Zapotlán el Grande</t>
+          <t>Zapotlán El Grande</t>
         </is>
       </c>
       <c r="C609">
@@ -8516,7 +8516,7 @@
         <v>2</v>
       </c>
       <c r="D621">
-        <v>9.888262632255513E-05</v>
+        <v>9.888262632255512E-05</v>
       </c>
     </row>
     <row r="622">
@@ -8665,7 +8665,7 @@
     <row r="633">
       <c r="B633" t="inlineStr">
         <is>
-          <t>Coalcomán de Vázquez Pallares</t>
+          <t>Coalcomán De Vázquez Pallares</t>
         </is>
       </c>
       <c r="C633">
@@ -8691,7 +8691,7 @@
     <row r="635">
       <c r="B635" t="inlineStr">
         <is>
-          <t>Cojumatlán de Régules</t>
+          <t>Cojumatlán De Régules</t>
         </is>
       </c>
       <c r="C635">
@@ -8711,7 +8711,7 @@
         <v>19</v>
       </c>
       <c r="D636">
-        <v>0.0009393849500642737</v>
+        <v>0.0009393849500642736</v>
       </c>
     </row>
     <row r="637">
@@ -8971,7 +8971,7 @@
         <v>2</v>
       </c>
       <c r="D656">
-        <v>9.888262632255513E-05</v>
+        <v>9.888262632255512E-05</v>
       </c>
     </row>
     <row r="657">
@@ -9400,7 +9400,7 @@
         <v>2</v>
       </c>
       <c r="D689">
-        <v>9.888262632255513E-05</v>
+        <v>9.888262632255512E-05</v>
       </c>
     </row>
     <row r="690">
@@ -9426,7 +9426,7 @@
         <v>2</v>
       </c>
       <c r="D691">
-        <v>9.888262632255513E-05</v>
+        <v>9.888262632255512E-05</v>
       </c>
     </row>
     <row r="692">
@@ -9562,7 +9562,7 @@
     <row r="702">
       <c r="B702" t="inlineStr">
         <is>
-          <t>Tiquicheo de Nicolás Romero</t>
+          <t>Tiquicheo De Nicolás Romero</t>
         </is>
       </c>
       <c r="C702">
@@ -9673,7 +9673,7 @@
         <v>2</v>
       </c>
       <c r="D710">
-        <v>9.888262632255513E-05</v>
+        <v>9.888262632255512E-05</v>
       </c>
     </row>
     <row r="711">
@@ -9892,7 +9892,7 @@
     <row r="727">
       <c r="B727" t="inlineStr">
         <is>
-          <t>Coatlán del Río</t>
+          <t>Coatlán Del Río</t>
         </is>
       </c>
       <c r="C727">
@@ -10042,13 +10042,13 @@
         <v>2</v>
       </c>
       <c r="D738">
-        <v>9.888262632255513E-05</v>
+        <v>9.888262632255512E-05</v>
       </c>
     </row>
     <row r="739">
       <c r="B739" t="inlineStr">
         <is>
-          <t>Puente de Ixtla</t>
+          <t>Puente De Ixtla</t>
         </is>
       </c>
       <c r="C739">
@@ -10081,7 +10081,7 @@
         <v>2</v>
       </c>
       <c r="D741">
-        <v>9.888262632255513E-05</v>
+        <v>9.888262632255512E-05</v>
       </c>
     </row>
     <row r="742">
@@ -10126,20 +10126,20 @@
     <row r="745">
       <c r="B745" t="inlineStr">
         <is>
-          <t>Tetela del Volcán</t>
+          <t>Tetela Del Volcán</t>
         </is>
       </c>
       <c r="C745">
         <v>2</v>
       </c>
       <c r="D745">
-        <v>9.888262632255513E-05</v>
+        <v>9.888262632255512E-05</v>
       </c>
     </row>
     <row r="746">
       <c r="B746" t="inlineStr">
         <is>
-          <t>Tlaltizapán de Zapata</t>
+          <t>Tlaltizapán De Zapata</t>
         </is>
       </c>
       <c r="C746">
@@ -10172,7 +10172,7 @@
         <v>2</v>
       </c>
       <c r="D748">
-        <v>9.888262632255513E-05</v>
+        <v>9.888262632255512E-05</v>
       </c>
     </row>
     <row r="749">
@@ -10224,7 +10224,7 @@
         <v>2</v>
       </c>
       <c r="D752">
-        <v>9.888262632255513E-05</v>
+        <v>9.888262632255512E-05</v>
       </c>
     </row>
     <row r="753">
@@ -10243,7 +10243,7 @@
     <row r="754">
       <c r="B754" t="inlineStr">
         <is>
-          <t>Zacualpan de Amilpas</t>
+          <t>Zacualpan De Amilpas</t>
         </is>
       </c>
       <c r="C754">
@@ -10300,7 +10300,7 @@
     <row r="758">
       <c r="B758" t="inlineStr">
         <is>
-          <t>Amatlán de Cañas</t>
+          <t>Amatlán De Cañas</t>
         </is>
       </c>
       <c r="C758">
@@ -10313,7 +10313,7 @@
     <row r="759">
       <c r="B759" t="inlineStr">
         <is>
-          <t>Bahía de Banderas</t>
+          <t>Bahía De Banderas</t>
         </is>
       </c>
       <c r="C759">
@@ -10359,13 +10359,13 @@
         <v>2</v>
       </c>
       <c r="D762">
-        <v>9.888262632255513E-05</v>
+        <v>9.888262632255512E-05</v>
       </c>
     </row>
     <row r="763">
       <c r="B763" t="inlineStr">
         <is>
-          <t>Ixtlán del Río</t>
+          <t>Ixtlán Del Río</t>
         </is>
       </c>
       <c r="C763">
@@ -10456,7 +10456,7 @@
     <row r="770">
       <c r="B770" t="inlineStr">
         <is>
-          <t>Santa María del Oro</t>
+          <t>Santa María Del Oro</t>
         </is>
       </c>
       <c r="C770">
@@ -10643,7 +10643,7 @@
     <row r="784">
       <c r="B784" t="inlineStr">
         <is>
-          <t>San Nicolás de los Garza</t>
+          <t>San Nicolás De Los Garza</t>
         </is>
       </c>
       <c r="C784">
@@ -10694,7 +10694,7 @@
         <v>2</v>
       </c>
       <c r="D787">
-        <v>9.888262632255513E-05</v>
+        <v>9.888262632255512E-05</v>
       </c>
     </row>
     <row r="788">
@@ -10713,7 +10713,7 @@
     <row r="789">
       <c r="B789" t="inlineStr">
         <is>
-          <t>Ayoquezco de Aldama</t>
+          <t>Ayoquezco De Aldama</t>
         </is>
       </c>
       <c r="C789">
@@ -10739,7 +10739,7 @@
     <row r="791">
       <c r="B791" t="inlineStr">
         <is>
-          <t>Chalcatongo de Hidalgo</t>
+          <t>Chalcatongo De Hidalgo</t>
         </is>
       </c>
       <c r="C791">
@@ -10765,7 +10765,7 @@
     <row r="793">
       <c r="B793" t="inlineStr">
         <is>
-          <t>Coicoyán de las Flores</t>
+          <t>Coicoyán De Las Flores</t>
         </is>
       </c>
       <c r="C793">
@@ -10791,7 +10791,7 @@
     <row r="795">
       <c r="B795" t="inlineStr">
         <is>
-          <t>Cuilápam de Guerrero</t>
+          <t>Cuilápam De Guerrero</t>
         </is>
       </c>
       <c r="C795">
@@ -10804,7 +10804,7 @@
     <row r="796">
       <c r="B796" t="inlineStr">
         <is>
-          <t>Fresnillo de Trujano</t>
+          <t>Fresnillo De Trujano</t>
         </is>
       </c>
       <c r="C796">
@@ -10817,7 +10817,7 @@
     <row r="797">
       <c r="B797" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Ejutla de Crespo</t>
+          <t>Heroica Ciudad De Ejutla De Crespo</t>
         </is>
       </c>
       <c r="C797">
@@ -10830,7 +10830,7 @@
     <row r="798">
       <c r="B798" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Huajuapan de León</t>
+          <t>Heroica Ciudad De Huajuapan De León</t>
         </is>
       </c>
       <c r="C798">
@@ -10843,7 +10843,7 @@
     <row r="799">
       <c r="B799" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Tlaxiaco</t>
+          <t>Heroica Ciudad De Tlaxiaco</t>
         </is>
       </c>
       <c r="C799">
@@ -10856,7 +10856,7 @@
     <row r="800">
       <c r="B800" t="inlineStr">
         <is>
-          <t>Ixtlán de Juárez</t>
+          <t>Ixtlán De Juárez</t>
         </is>
       </c>
       <c r="C800">
@@ -10869,7 +10869,7 @@
     <row r="801">
       <c r="B801" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Juchitán de Zaragoza</t>
+          <t>Heroica Ciudad De Juchitán De Zaragoza</t>
         </is>
       </c>
       <c r="C801">
@@ -10960,7 +10960,7 @@
     <row r="808">
       <c r="B808" t="inlineStr">
         <is>
-          <t>Mariscala de Juárez</t>
+          <t>Mariscala De Juárez</t>
         </is>
       </c>
       <c r="C808">
@@ -10973,20 +10973,20 @@
     <row r="809">
       <c r="B809" t="inlineStr">
         <is>
-          <t>Mártires de Tacubaya</t>
+          <t>Mártires De Tacubaya</t>
         </is>
       </c>
       <c r="C809">
         <v>2</v>
       </c>
       <c r="D809">
-        <v>9.888262632255513E-05</v>
+        <v>9.888262632255512E-05</v>
       </c>
     </row>
     <row r="810">
       <c r="B810" t="inlineStr">
         <is>
-          <t>Miahuatlán de Porfirio Díaz</t>
+          <t>Miahuatlán De Porfirio Díaz</t>
         </is>
       </c>
       <c r="C810">
@@ -10999,7 +10999,7 @@
     <row r="811">
       <c r="B811" t="inlineStr">
         <is>
-          <t>Nejapa de Madero</t>
+          <t>Nejapa De Madero</t>
         </is>
       </c>
       <c r="C811">
@@ -11012,7 +11012,7 @@
     <row r="812">
       <c r="B812" t="inlineStr">
         <is>
-          <t>Oaxaca de Juárez</t>
+          <t>Oaxaca De Juárez</t>
         </is>
       </c>
       <c r="C812">
@@ -11025,7 +11025,7 @@
     <row r="813">
       <c r="B813" t="inlineStr">
         <is>
-          <t>Ocotlán de Morelos</t>
+          <t>Ocotlán De Morelos</t>
         </is>
       </c>
       <c r="C813">
@@ -11038,20 +11038,20 @@
     <row r="814">
       <c r="B814" t="inlineStr">
         <is>
-          <t>Pinotepa de Don Luis</t>
+          <t>Pinotepa De Don Luis</t>
         </is>
       </c>
       <c r="C814">
         <v>2</v>
       </c>
       <c r="D814">
-        <v>9.888262632255513E-05</v>
+        <v>9.888262632255512E-05</v>
       </c>
     </row>
     <row r="815">
       <c r="B815" t="inlineStr">
         <is>
-          <t>Putla Villa de Guerrero</t>
+          <t>Putla Villa De Guerrero</t>
         </is>
       </c>
       <c r="C815">
@@ -11064,7 +11064,7 @@
     <row r="816">
       <c r="B816" t="inlineStr">
         <is>
-          <t>Reforma de Pineda</t>
+          <t>Reforma De Pineda</t>
         </is>
       </c>
       <c r="C816">
@@ -11097,7 +11097,7 @@
         <v>2</v>
       </c>
       <c r="D818">
-        <v>9.888262632255513E-05</v>
+        <v>9.888262632255512E-05</v>
       </c>
     </row>
     <row r="819">
@@ -11175,13 +11175,13 @@
         <v>2</v>
       </c>
       <c r="D824">
-        <v>9.888262632255513E-05</v>
+        <v>9.888262632255512E-05</v>
       </c>
     </row>
     <row r="825">
       <c r="B825" t="inlineStr">
         <is>
-          <t>San Antonio de la Cal</t>
+          <t>San Antonio De La Cal</t>
         </is>
       </c>
       <c r="C825">
@@ -11201,7 +11201,7 @@
         <v>2</v>
       </c>
       <c r="D826">
-        <v>9.888262632255513E-05</v>
+        <v>9.888262632255512E-05</v>
       </c>
     </row>
     <row r="827">
@@ -11318,7 +11318,7 @@
         <v>2</v>
       </c>
       <c r="D835">
-        <v>9.888262632255513E-05</v>
+        <v>9.888262632255512E-05</v>
       </c>
     </row>
     <row r="836">
@@ -11422,13 +11422,13 @@
         <v>2</v>
       </c>
       <c r="D843">
-        <v>9.888262632255513E-05</v>
+        <v>9.888262632255512E-05</v>
       </c>
     </row>
     <row r="844">
       <c r="B844" t="inlineStr">
         <is>
-          <t>San José del Progreso</t>
+          <t>San José Del Progreso</t>
         </is>
       </c>
       <c r="C844">
@@ -11584,7 +11584,7 @@
     <row r="856">
       <c r="B856" t="inlineStr">
         <is>
-          <t>San Juan del Estado</t>
+          <t>San Juan Del Estado</t>
         </is>
       </c>
       <c r="C856">
@@ -11682,7 +11682,7 @@
         <v>2</v>
       </c>
       <c r="D863">
-        <v>9.888262632255513E-05</v>
+        <v>9.888262632255512E-05</v>
       </c>
     </row>
     <row r="864">
@@ -11695,7 +11695,7 @@
         <v>2</v>
       </c>
       <c r="D864">
-        <v>9.888262632255513E-05</v>
+        <v>9.888262632255512E-05</v>
       </c>
     </row>
     <row r="865">
@@ -11812,7 +11812,7 @@
         <v>2</v>
       </c>
       <c r="D873">
-        <v>9.888262632255513E-05</v>
+        <v>9.888262632255512E-05</v>
       </c>
     </row>
     <row r="874">
@@ -11922,7 +11922,7 @@
     <row r="882">
       <c r="B882" t="inlineStr">
         <is>
-          <t>San Miguel el Grande</t>
+          <t>San Miguel El Grande</t>
         </is>
       </c>
       <c r="C882">
@@ -11955,7 +11955,7 @@
         <v>2</v>
       </c>
       <c r="D884">
-        <v>9.888262632255513E-05</v>
+        <v>9.888262632255512E-05</v>
       </c>
     </row>
     <row r="885">
@@ -11974,7 +11974,7 @@
     <row r="886">
       <c r="B886" t="inlineStr">
         <is>
-          <t>San Pablo Villa de Mitla</t>
+          <t>San Pablo Villa De Mitla</t>
         </is>
       </c>
       <c r="C886">
@@ -12046,7 +12046,7 @@
         <v>2</v>
       </c>
       <c r="D891">
-        <v>9.888262632255513E-05</v>
+        <v>9.888262632255512E-05</v>
       </c>
     </row>
     <row r="892">
@@ -12059,7 +12059,7 @@
         <v>2</v>
       </c>
       <c r="D892">
-        <v>9.888262632255513E-05</v>
+        <v>9.888262632255512E-05</v>
       </c>
     </row>
     <row r="893">
@@ -12104,7 +12104,7 @@
     <row r="896">
       <c r="B896" t="inlineStr">
         <is>
-          <t>San Pedro y San Pablo Ayutla</t>
+          <t>San Pedro Y San Pablo Ayutla</t>
         </is>
       </c>
       <c r="C896">
@@ -12117,7 +12117,7 @@
     <row r="897">
       <c r="B897" t="inlineStr">
         <is>
-          <t>San Pedro y San Pablo Teposcolula</t>
+          <t>San Pedro Y San Pablo Teposcolula</t>
         </is>
       </c>
       <c r="C897">
@@ -12130,7 +12130,7 @@
     <row r="898">
       <c r="B898" t="inlineStr">
         <is>
-          <t>San Pedro y San Pablo Tequixtepec</t>
+          <t>San Pedro Y San Pablo Tequixtepec</t>
         </is>
       </c>
       <c r="C898">
@@ -12176,7 +12176,7 @@
         <v>2</v>
       </c>
       <c r="D901">
-        <v>9.888262632255513E-05</v>
+        <v>9.888262632255512E-05</v>
       </c>
     </row>
     <row r="902">
@@ -12202,7 +12202,7 @@
         <v>2</v>
       </c>
       <c r="D903">
-        <v>9.888262632255513E-05</v>
+        <v>9.888262632255512E-05</v>
       </c>
     </row>
     <row r="904">
@@ -12241,7 +12241,7 @@
         <v>2</v>
       </c>
       <c r="D906">
-        <v>9.888262632255513E-05</v>
+        <v>9.888262632255512E-05</v>
       </c>
     </row>
     <row r="907">
@@ -12286,7 +12286,7 @@
     <row r="910">
       <c r="B910" t="inlineStr">
         <is>
-          <t>Santa Cruz Tacache de Mina</t>
+          <t>Santa Cruz Tacache De Mina</t>
         </is>
       </c>
       <c r="C910">
@@ -12338,7 +12338,7 @@
     <row r="914">
       <c r="B914" t="inlineStr">
         <is>
-          <t>Santa Inés de Zaragoza</t>
+          <t>Santa Inés De Zaragoza</t>
         </is>
       </c>
       <c r="C914">
@@ -12351,7 +12351,7 @@
     <row r="915">
       <c r="B915" t="inlineStr">
         <is>
-          <t>Santa Lucía del Camino</t>
+          <t>Santa Lucía Del Camino</t>
         </is>
       </c>
       <c r="C915">
@@ -12397,7 +12397,7 @@
         <v>2</v>
       </c>
       <c r="D918">
-        <v>9.888262632255513E-05</v>
+        <v>9.888262632255512E-05</v>
       </c>
     </row>
     <row r="919">
@@ -12436,7 +12436,7 @@
         <v>2</v>
       </c>
       <c r="D921">
-        <v>9.888262632255513E-05</v>
+        <v>9.888262632255512E-05</v>
       </c>
     </row>
     <row r="922">
@@ -12455,14 +12455,14 @@
     <row r="923">
       <c r="B923" t="inlineStr">
         <is>
-          <t>Santa María Jalapa del Marqués</t>
+          <t>Santa María Jalapa Del Marqués</t>
         </is>
       </c>
       <c r="C923">
         <v>2</v>
       </c>
       <c r="D923">
-        <v>9.888262632255513E-05</v>
+        <v>9.888262632255512E-05</v>
       </c>
     </row>
     <row r="924">
@@ -12475,7 +12475,7 @@
         <v>2</v>
       </c>
       <c r="D924">
-        <v>9.888262632255513E-05</v>
+        <v>9.888262632255512E-05</v>
       </c>
     </row>
     <row r="925">
@@ -12540,7 +12540,7 @@
         <v>2</v>
       </c>
       <c r="D929">
-        <v>9.888262632255513E-05</v>
+        <v>9.888262632255512E-05</v>
       </c>
     </row>
     <row r="930">
@@ -12559,7 +12559,7 @@
     <row r="931">
       <c r="B931" t="inlineStr">
         <is>
-          <t>Santiago del Río</t>
+          <t>Santiago Del Río</t>
         </is>
       </c>
       <c r="C931">
@@ -12631,7 +12631,7 @@
         <v>2</v>
       </c>
       <c r="D936">
-        <v>9.888262632255513E-05</v>
+        <v>9.888262632255512E-05</v>
       </c>
     </row>
     <row r="937">
@@ -12657,7 +12657,7 @@
         <v>2</v>
       </c>
       <c r="D938">
-        <v>9.888262632255513E-05</v>
+        <v>9.888262632255512E-05</v>
       </c>
     </row>
     <row r="939">
@@ -12722,7 +12722,7 @@
         <v>2</v>
       </c>
       <c r="D943">
-        <v>9.888262632255513E-05</v>
+        <v>9.888262632255512E-05</v>
       </c>
     </row>
     <row r="944">
@@ -12735,7 +12735,7 @@
         <v>2</v>
       </c>
       <c r="D944">
-        <v>9.888262632255513E-05</v>
+        <v>9.888262632255512E-05</v>
       </c>
     </row>
     <row r="945">
@@ -12761,7 +12761,7 @@
         <v>2</v>
       </c>
       <c r="D946">
-        <v>9.888262632255513E-05</v>
+        <v>9.888262632255512E-05</v>
       </c>
     </row>
     <row r="947">
@@ -12787,7 +12787,7 @@
         <v>2</v>
       </c>
       <c r="D948">
-        <v>9.888262632255513E-05</v>
+        <v>9.888262632255512E-05</v>
       </c>
     </row>
     <row r="949">
@@ -12800,7 +12800,7 @@
         <v>2</v>
       </c>
       <c r="D949">
-        <v>9.888262632255513E-05</v>
+        <v>9.888262632255512E-05</v>
       </c>
     </row>
     <row r="950">
@@ -12839,7 +12839,7 @@
         <v>2</v>
       </c>
       <c r="D952">
-        <v>9.888262632255513E-05</v>
+        <v>9.888262632255512E-05</v>
       </c>
     </row>
     <row r="953">
@@ -12852,7 +12852,7 @@
         <v>2</v>
       </c>
       <c r="D953">
-        <v>9.888262632255513E-05</v>
+        <v>9.888262632255512E-05</v>
       </c>
     </row>
     <row r="954">
@@ -12884,7 +12884,7 @@
     <row r="956">
       <c r="B956" t="inlineStr">
         <is>
-          <t>Tataltepec de Valdés</t>
+          <t>Tataltepec De Valdés</t>
         </is>
       </c>
       <c r="C956">
@@ -12897,7 +12897,7 @@
     <row r="957">
       <c r="B957" t="inlineStr">
         <is>
-          <t>Teotitlán de Flores Magón</t>
+          <t>Teotitlán De Flores Magón</t>
         </is>
       </c>
       <c r="C957">
@@ -12910,7 +12910,7 @@
     <row r="958">
       <c r="B958" t="inlineStr">
         <is>
-          <t>Teotitlán del Valle</t>
+          <t>Teotitlán Del Valle</t>
         </is>
       </c>
       <c r="C958">
@@ -12949,7 +12949,7 @@
     <row r="961">
       <c r="B961" t="inlineStr">
         <is>
-          <t>Tlacolula de Matamoros</t>
+          <t>Tlacolula De Matamoros</t>
         </is>
       </c>
       <c r="C961">
@@ -12962,7 +12962,7 @@
     <row r="962">
       <c r="B962" t="inlineStr">
         <is>
-          <t>Totontepec Villa de Morelos</t>
+          <t>Totontepec Villa De Morelos</t>
         </is>
       </c>
       <c r="C962">
@@ -12975,7 +12975,7 @@
     <row r="963">
       <c r="B963" t="inlineStr">
         <is>
-          <t>Villa de Etla</t>
+          <t>Villa De Etla</t>
         </is>
       </c>
       <c r="C963">
@@ -12988,7 +12988,7 @@
     <row r="964">
       <c r="B964" t="inlineStr">
         <is>
-          <t>Villa de Tamazulápam del Progreso</t>
+          <t>Villa De Tamazulápam Del Progreso</t>
         </is>
       </c>
       <c r="C964">
@@ -13001,7 +13001,7 @@
     <row r="965">
       <c r="B965" t="inlineStr">
         <is>
-          <t>Villa de Tututepec de Melchor Ocampo</t>
+          <t>Villa De Tututepec De Melchor Ocampo</t>
         </is>
       </c>
       <c r="C965">
@@ -13014,14 +13014,14 @@
     <row r="966">
       <c r="B966" t="inlineStr">
         <is>
-          <t>Villa de Zaachila</t>
+          <t>Villa De Zaachila</t>
         </is>
       </c>
       <c r="C966">
         <v>2</v>
       </c>
       <c r="D966">
-        <v>9.888262632255513E-05</v>
+        <v>9.888262632255512E-05</v>
       </c>
     </row>
     <row r="967">
@@ -13040,7 +13040,7 @@
     <row r="968">
       <c r="B968" t="inlineStr">
         <is>
-          <t>Villa Sola de Vega</t>
+          <t>Villa Sola De Vega</t>
         </is>
       </c>
       <c r="C968">
@@ -13053,7 +13053,7 @@
     <row r="969">
       <c r="B969" t="inlineStr">
         <is>
-          <t>Villa Talea de Castro</t>
+          <t>Villa Talea De Castro</t>
         </is>
       </c>
       <c r="C969">
@@ -13073,20 +13073,20 @@
         <v>2</v>
       </c>
       <c r="D970">
-        <v>9.888262632255513E-05</v>
+        <v>9.888262632255512E-05</v>
       </c>
     </row>
     <row r="971">
       <c r="B971" t="inlineStr">
         <is>
-          <t>Zimatlán de Álvarez</t>
+          <t>Zimatlán De Álvarez</t>
         </is>
       </c>
       <c r="C971">
         <v>19</v>
       </c>
       <c r="D971">
-        <v>0.0009393849500642737</v>
+        <v>0.0009393849500642736</v>
       </c>
     </row>
     <row r="972">
@@ -13169,7 +13169,7 @@
         <v>2</v>
       </c>
       <c r="D977">
-        <v>9.888262632255513E-05</v>
+        <v>9.888262632255512E-05</v>
       </c>
     </row>
     <row r="978">
@@ -13260,7 +13260,7 @@
         <v>2</v>
       </c>
       <c r="D984">
-        <v>9.888262632255513E-05</v>
+        <v>9.888262632255512E-05</v>
       </c>
     </row>
     <row r="985">
@@ -13273,7 +13273,7 @@
         <v>2</v>
       </c>
       <c r="D985">
-        <v>9.888262632255513E-05</v>
+        <v>9.888262632255512E-05</v>
       </c>
     </row>
     <row r="986">
@@ -13351,7 +13351,7 @@
         <v>2</v>
       </c>
       <c r="D991">
-        <v>9.888262632255513E-05</v>
+        <v>9.888262632255512E-05</v>
       </c>
     </row>
     <row r="992">
@@ -13370,14 +13370,14 @@
     <row r="993">
       <c r="B993" t="inlineStr">
         <is>
-          <t>Chalchicomula de Sesma</t>
+          <t>Chalchicomula De Sesma</t>
         </is>
       </c>
       <c r="C993">
         <v>2</v>
       </c>
       <c r="D993">
-        <v>9.888262632255513E-05</v>
+        <v>9.888262632255512E-05</v>
       </c>
     </row>
     <row r="994">
@@ -13474,7 +13474,7 @@
     <row r="1001">
       <c r="B1001" t="inlineStr">
         <is>
-          <t>Chila de la Sal</t>
+          <t>Chila De La Sal</t>
         </is>
       </c>
       <c r="C1001">
@@ -13494,7 +13494,7 @@
         <v>2</v>
       </c>
       <c r="D1002">
-        <v>9.888262632255513E-05</v>
+        <v>9.888262632255512E-05</v>
       </c>
     </row>
     <row r="1003">
@@ -13507,7 +13507,7 @@
         <v>2</v>
       </c>
       <c r="D1003">
-        <v>9.888262632255513E-05</v>
+        <v>9.888262632255512E-05</v>
       </c>
     </row>
     <row r="1004">
@@ -13591,7 +13591,7 @@
     <row r="1010">
       <c r="B1010" t="inlineStr">
         <is>
-          <t>Cuayuca de Andrade</t>
+          <t>Cuayuca De Andrade</t>
         </is>
       </c>
       <c r="C1010">
@@ -13604,14 +13604,14 @@
     <row r="1011">
       <c r="B1011" t="inlineStr">
         <is>
-          <t>Cuetzalan del Progreso</t>
+          <t>Cuetzalan Del Progreso</t>
         </is>
       </c>
       <c r="C1011">
         <v>2</v>
       </c>
       <c r="D1011">
-        <v>9.888262632255513E-05</v>
+        <v>9.888262632255512E-05</v>
       </c>
     </row>
     <row r="1012">
@@ -13650,7 +13650,7 @@
         <v>2</v>
       </c>
       <c r="D1014">
-        <v>9.888262632255513E-05</v>
+        <v>9.888262632255512E-05</v>
       </c>
     </row>
     <row r="1015">
@@ -13741,7 +13741,7 @@
         <v>2</v>
       </c>
       <c r="D1021">
-        <v>9.888262632255513E-05</v>
+        <v>9.888262632255512E-05</v>
       </c>
     </row>
     <row r="1022">
@@ -13760,7 +13760,7 @@
     <row r="1023">
       <c r="B1023" t="inlineStr">
         <is>
-          <t>Huehuetlán el Chico</t>
+          <t>Huehuetlán El Chico</t>
         </is>
       </c>
       <c r="C1023">
@@ -13773,7 +13773,7 @@
     <row r="1024">
       <c r="B1024" t="inlineStr">
         <is>
-          <t>Huehuetlán el Grande</t>
+          <t>Huehuetlán El Grande</t>
         </is>
       </c>
       <c r="C1024">
@@ -13806,7 +13806,7 @@
         <v>2</v>
       </c>
       <c r="D1026">
-        <v>9.888262632255513E-05</v>
+        <v>9.888262632255512E-05</v>
       </c>
     </row>
     <row r="1027">
@@ -13851,7 +13851,7 @@
     <row r="1030">
       <c r="B1030" t="inlineStr">
         <is>
-          <t>Izúcar de Matamoros</t>
+          <t>Izúcar De Matamoros</t>
         </is>
       </c>
       <c r="C1030">
@@ -13923,7 +13923,7 @@
         <v>2</v>
       </c>
       <c r="D1035">
-        <v>9.888262632255513E-05</v>
+        <v>9.888262632255512E-05</v>
       </c>
     </row>
     <row r="1036">
@@ -13968,7 +13968,7 @@
     <row r="1039">
       <c r="B1039" t="inlineStr">
         <is>
-          <t>Los Reyes de Juárez</t>
+          <t>Los Reyes De Juárez</t>
         </is>
       </c>
       <c r="C1039">
@@ -13981,7 +13981,7 @@
     <row r="1040">
       <c r="B1040" t="inlineStr">
         <is>
-          <t>Mazapiltepec de Juárez</t>
+          <t>Mazapiltepec De Juárez</t>
         </is>
       </c>
       <c r="C1040">
@@ -14014,7 +14014,7 @@
         <v>2</v>
       </c>
       <c r="D1042">
-        <v>9.888262632255513E-05</v>
+        <v>9.888262632255512E-05</v>
       </c>
     </row>
     <row r="1043">
@@ -14085,7 +14085,7 @@
     <row r="1048">
       <c r="B1048" t="inlineStr">
         <is>
-          <t>Palmar de Bravo</t>
+          <t>Palmar De Bravo</t>
         </is>
       </c>
       <c r="C1048">
@@ -14118,7 +14118,7 @@
         <v>2</v>
       </c>
       <c r="D1050">
-        <v>9.888262632255513E-05</v>
+        <v>9.888262632255512E-05</v>
       </c>
     </row>
     <row r="1051">
@@ -14261,7 +14261,7 @@
         <v>2</v>
       </c>
       <c r="D1061">
-        <v>9.888262632255513E-05</v>
+        <v>9.888262632255512E-05</v>
       </c>
     </row>
     <row r="1062">
@@ -14287,7 +14287,7 @@
         <v>19</v>
       </c>
       <c r="D1063">
-        <v>0.0009393849500642737</v>
+        <v>0.0009393849500642736</v>
       </c>
     </row>
     <row r="1064">
@@ -14319,7 +14319,7 @@
     <row r="1066">
       <c r="B1066" t="inlineStr">
         <is>
-          <t>San Nicolás de los Ranchos</t>
+          <t>San Nicolás De Los Ranchos</t>
         </is>
       </c>
       <c r="C1066">
@@ -14345,20 +14345,20 @@
     <row r="1068">
       <c r="B1068" t="inlineStr">
         <is>
-          <t>San Salvador el Seco</t>
+          <t>San Salvador El Seco</t>
         </is>
       </c>
       <c r="C1068">
         <v>20</v>
       </c>
       <c r="D1068">
-        <v>0.0009888262632255513</v>
+        <v>0.0009888262632255511</v>
       </c>
     </row>
     <row r="1069">
       <c r="B1069" t="inlineStr">
         <is>
-          <t>San Salvador el Verde</t>
+          <t>San Salvador El Verde</t>
         </is>
       </c>
       <c r="C1069">
@@ -14430,13 +14430,13 @@
         <v>2</v>
       </c>
       <c r="D1074">
-        <v>9.888262632255513E-05</v>
+        <v>9.888262632255512E-05</v>
       </c>
     </row>
     <row r="1075">
       <c r="B1075" t="inlineStr">
         <is>
-          <t>Tecali de Herrera</t>
+          <t>Tecali De Herrera</t>
         </is>
       </c>
       <c r="C1075">
@@ -14501,7 +14501,7 @@
     <row r="1080">
       <c r="B1080" t="inlineStr">
         <is>
-          <t>Tepanco de López</t>
+          <t>Tepanco De López</t>
         </is>
       </c>
       <c r="C1080">
@@ -14514,7 +14514,7 @@
     <row r="1081">
       <c r="B1081" t="inlineStr">
         <is>
-          <t>Tepango de Rodríguez</t>
+          <t>Tepango De Rodríguez</t>
         </is>
       </c>
       <c r="C1081">
@@ -14527,14 +14527,14 @@
     <row r="1082">
       <c r="B1082" t="inlineStr">
         <is>
-          <t>Tepatlaxco de Hidalgo</t>
+          <t>Tepatlaxco De Hidalgo</t>
         </is>
       </c>
       <c r="C1082">
         <v>2</v>
       </c>
       <c r="D1082">
-        <v>9.888262632255513E-05</v>
+        <v>9.888262632255512E-05</v>
       </c>
     </row>
     <row r="1083">
@@ -14579,7 +14579,7 @@
     <row r="1086">
       <c r="B1086" t="inlineStr">
         <is>
-          <t>Tepexi de Rodríguez</t>
+          <t>Tepexi De Rodríguez</t>
         </is>
       </c>
       <c r="C1086">
@@ -14599,13 +14599,13 @@
         <v>2</v>
       </c>
       <c r="D1087">
-        <v>9.888262632255513E-05</v>
+        <v>9.888262632255512E-05</v>
       </c>
     </row>
     <row r="1088">
       <c r="B1088" t="inlineStr">
         <is>
-          <t>Tetela de Ocampo</t>
+          <t>Tetela De Ocampo</t>
         </is>
       </c>
       <c r="C1088">
@@ -14638,7 +14638,7 @@
         <v>2</v>
       </c>
       <c r="D1090">
-        <v>9.888262632255513E-05</v>
+        <v>9.888262632255512E-05</v>
       </c>
     </row>
     <row r="1091">
@@ -14651,7 +14651,7 @@
         <v>2</v>
       </c>
       <c r="D1091">
-        <v>9.888262632255513E-05</v>
+        <v>9.888262632255512E-05</v>
       </c>
     </row>
     <row r="1092">
@@ -14670,7 +14670,7 @@
     <row r="1093">
       <c r="B1093" t="inlineStr">
         <is>
-          <t>Tlacotepec de Benito Juárez</t>
+          <t>Tlacotepec De Benito Juárez</t>
         </is>
       </c>
       <c r="C1093">
@@ -14755,7 +14755,7 @@
         <v>2</v>
       </c>
       <c r="D1099">
-        <v>9.888262632255513E-05</v>
+        <v>9.888262632255512E-05</v>
       </c>
     </row>
     <row r="1100">
@@ -14865,14 +14865,14 @@
     <row r="1108">
       <c r="B1108" t="inlineStr">
         <is>
-          <t>Xayacatlán de Bravo</t>
+          <t>Xayacatlán De Bravo</t>
         </is>
       </c>
       <c r="C1108">
         <v>2</v>
       </c>
       <c r="D1108">
-        <v>9.888262632255513E-05</v>
+        <v>9.888262632255512E-05</v>
       </c>
     </row>
     <row r="1109">
@@ -14911,7 +14911,7 @@
         <v>2</v>
       </c>
       <c r="D1111">
-        <v>9.888262632255513E-05</v>
+        <v>9.888262632255512E-05</v>
       </c>
     </row>
     <row r="1112">
@@ -14943,7 +14943,7 @@
     <row r="1114">
       <c r="B1114" t="inlineStr">
         <is>
-          <t>Xochitlán de Vicente Suárez</t>
+          <t>Xochitlán De Vicente Suárez</t>
         </is>
       </c>
       <c r="C1114">
@@ -14989,7 +14989,7 @@
         <v>2</v>
       </c>
       <c r="D1117">
-        <v>9.888262632255513E-05</v>
+        <v>9.888262632255512E-05</v>
       </c>
     </row>
     <row r="1118">
@@ -15130,7 +15130,7 @@
       </c>
       <c r="B1128" t="inlineStr">
         <is>
-          <t>Amealco de Bonfil</t>
+          <t>Amealco De Bonfil</t>
         </is>
       </c>
       <c r="C1128">
@@ -15143,7 +15143,7 @@
     <row r="1129">
       <c r="B1129" t="inlineStr">
         <is>
-          <t>Cadereyta de Montes</t>
+          <t>Cadereyta De Montes</t>
         </is>
       </c>
       <c r="C1129">
@@ -15202,13 +15202,13 @@
         <v>2</v>
       </c>
       <c r="D1133">
-        <v>9.888262632255513E-05</v>
+        <v>9.888262632255512E-05</v>
       </c>
     </row>
     <row r="1134">
       <c r="B1134" t="inlineStr">
         <is>
-          <t>Jalpan de Serra</t>
+          <t>Jalpan De Serra</t>
         </is>
       </c>
       <c r="C1134">
@@ -15221,7 +15221,7 @@
     <row r="1135">
       <c r="B1135" t="inlineStr">
         <is>
-          <t>Landa de Matamoros</t>
+          <t>Landa De Matamoros</t>
         </is>
       </c>
       <c r="C1135">
@@ -15241,7 +15241,7 @@
         <v>2</v>
       </c>
       <c r="D1136">
-        <v>9.888262632255513E-05</v>
+        <v>9.888262632255512E-05</v>
       </c>
     </row>
     <row r="1137">
@@ -15260,7 +15260,7 @@
     <row r="1138">
       <c r="B1138" t="inlineStr">
         <is>
-          <t>Pinal de Amoles</t>
+          <t>Pinal De Amoles</t>
         </is>
       </c>
       <c r="C1138">
@@ -15299,7 +15299,7 @@
     <row r="1141">
       <c r="B1141" t="inlineStr">
         <is>
-          <t>San Juan del Río</t>
+          <t>San Juan Del Río</t>
         </is>
       </c>
       <c r="C1141">
@@ -15472,7 +15472,7 @@
         <v>2</v>
       </c>
       <c r="D1153">
-        <v>9.888262632255513E-05</v>
+        <v>9.888262632255512E-05</v>
       </c>
     </row>
     <row r="1154">
@@ -15485,7 +15485,7 @@
         <v>2</v>
       </c>
       <c r="D1154">
-        <v>9.888262632255513E-05</v>
+        <v>9.888262632255512E-05</v>
       </c>
     </row>
     <row r="1155">
@@ -15504,7 +15504,7 @@
     <row r="1156">
       <c r="B1156" t="inlineStr">
         <is>
-          <t>Mexquitic de Carmona</t>
+          <t>Mexquitic De Carmona</t>
         </is>
       </c>
       <c r="C1156">
@@ -15543,7 +15543,7 @@
     <row r="1159">
       <c r="B1159" t="inlineStr">
         <is>
-          <t>San Ciro de Acosta</t>
+          <t>San Ciro De Acosta</t>
         </is>
       </c>
       <c r="C1159">
@@ -15582,7 +15582,7 @@
     <row r="1162">
       <c r="B1162" t="inlineStr">
         <is>
-          <t>Santa María del Río</t>
+          <t>Santa María Del Río</t>
         </is>
       </c>
       <c r="C1162">
@@ -15608,7 +15608,7 @@
     <row r="1164">
       <c r="B1164" t="inlineStr">
         <is>
-          <t>Soledad de Graciano Sánchez</t>
+          <t>Soledad De Graciano Sánchez</t>
         </is>
       </c>
       <c r="C1164">
@@ -15667,26 +15667,26 @@
         <v>2</v>
       </c>
       <c r="D1168">
-        <v>9.888262632255513E-05</v>
+        <v>9.888262632255512E-05</v>
       </c>
     </row>
     <row r="1169">
       <c r="B1169" t="inlineStr">
         <is>
-          <t>Villa de Arriaga</t>
+          <t>Villa De Arriaga</t>
         </is>
       </c>
       <c r="C1169">
         <v>2</v>
       </c>
       <c r="D1169">
-        <v>9.888262632255513E-05</v>
+        <v>9.888262632255512E-05</v>
       </c>
     </row>
     <row r="1170">
       <c r="B1170" t="inlineStr">
         <is>
-          <t>Villa de Guadalupe</t>
+          <t>Villa De Guadalupe</t>
         </is>
       </c>
       <c r="C1170">
@@ -15699,7 +15699,7 @@
     <row r="1171">
       <c r="B1171" t="inlineStr">
         <is>
-          <t>Villa de Ramos</t>
+          <t>Villa De Ramos</t>
         </is>
       </c>
       <c r="C1171">
@@ -15712,7 +15712,7 @@
     <row r="1172">
       <c r="B1172" t="inlineStr">
         <is>
-          <t>Villa de Reyes</t>
+          <t>Villa De Reyes</t>
         </is>
       </c>
       <c r="C1172">
@@ -15745,7 +15745,7 @@
         <v>2</v>
       </c>
       <c r="D1174">
-        <v>9.888262632255513E-05</v>
+        <v>9.888262632255512E-05</v>
       </c>
     </row>
     <row r="1175">
@@ -15906,7 +15906,7 @@
         <v>19</v>
       </c>
       <c r="D1186">
-        <v>0.0009393849500642737</v>
+        <v>0.0009393849500642736</v>
       </c>
     </row>
     <row r="1187">
@@ -15958,7 +15958,7 @@
         <v>20</v>
       </c>
       <c r="D1190">
-        <v>0.0009888262632255513</v>
+        <v>0.0009888262632255511</v>
       </c>
     </row>
     <row r="1191">
@@ -16041,7 +16041,7 @@
         <v>2</v>
       </c>
       <c r="D1196">
-        <v>9.888262632255513E-05</v>
+        <v>9.888262632255512E-05</v>
       </c>
     </row>
     <row r="1197">
@@ -16119,7 +16119,7 @@
         <v>19</v>
       </c>
       <c r="D1202">
-        <v>0.0009393849500642737</v>
+        <v>0.0009393849500642736</v>
       </c>
     </row>
     <row r="1203">
@@ -16223,7 +16223,7 @@
         <v>2</v>
       </c>
       <c r="D1210">
-        <v>9.888262632255513E-05</v>
+        <v>9.888262632255512E-05</v>
       </c>
     </row>
     <row r="1211">
@@ -16294,7 +16294,7 @@
     <row r="1216">
       <c r="B1216" t="inlineStr">
         <is>
-          <t>Nacozari de García</t>
+          <t>Nacozari De García</t>
         </is>
       </c>
       <c r="C1216">
@@ -16340,7 +16340,7 @@
         <v>2</v>
       </c>
       <c r="D1219">
-        <v>9.888262632255513E-05</v>
+        <v>9.888262632255512E-05</v>
       </c>
     </row>
     <row r="1220">
@@ -16366,7 +16366,7 @@
         <v>2</v>
       </c>
       <c r="D1221">
-        <v>9.888262632255513E-05</v>
+        <v>9.888262632255512E-05</v>
       </c>
     </row>
     <row r="1222">
@@ -16392,7 +16392,7 @@
         <v>2</v>
       </c>
       <c r="D1223">
-        <v>9.888262632255513E-05</v>
+        <v>9.888262632255512E-05</v>
       </c>
     </row>
     <row r="1224">
@@ -16553,7 +16553,7 @@
         <v>2</v>
       </c>
       <c r="D1235">
-        <v>9.888262632255513E-05</v>
+        <v>9.888262632255512E-05</v>
       </c>
     </row>
     <row r="1236">
@@ -16572,14 +16572,14 @@
     <row r="1237">
       <c r="B1237" t="inlineStr">
         <is>
-          <t>Jalpa de Méndez</t>
+          <t>Jalpa De Méndez</t>
         </is>
       </c>
       <c r="C1237">
         <v>2</v>
       </c>
       <c r="D1237">
-        <v>9.888262632255513E-05</v>
+        <v>9.888262632255512E-05</v>
       </c>
     </row>
     <row r="1238">
@@ -16592,7 +16592,7 @@
         <v>2</v>
       </c>
       <c r="D1238">
-        <v>9.888262632255513E-05</v>
+        <v>9.888262632255512E-05</v>
       </c>
     </row>
     <row r="1239">
@@ -16631,7 +16631,7 @@
         <v>2</v>
       </c>
       <c r="D1241">
-        <v>9.888262632255513E-05</v>
+        <v>9.888262632255512E-05</v>
       </c>
     </row>
     <row r="1242">
@@ -16714,7 +16714,7 @@
         <v>2</v>
       </c>
       <c r="D1247">
-        <v>9.888262632255513E-05</v>
+        <v>9.888262632255512E-05</v>
       </c>
     </row>
     <row r="1248">
@@ -16753,7 +16753,7 @@
         <v>2</v>
       </c>
       <c r="D1250">
-        <v>9.888262632255513E-05</v>
+        <v>9.888262632255512E-05</v>
       </c>
     </row>
     <row r="1251">
@@ -16805,7 +16805,7 @@
         <v>2</v>
       </c>
       <c r="D1254">
-        <v>9.888262632255513E-05</v>
+        <v>9.888262632255512E-05</v>
       </c>
     </row>
     <row r="1255">
@@ -16933,7 +16933,7 @@
     <row r="1264">
       <c r="B1264" t="inlineStr">
         <is>
-          <t>Contla de Juan Cuamatzi</t>
+          <t>Contla De Juan Cuamatzi</t>
         </is>
       </c>
       <c r="C1264">
@@ -16966,13 +16966,13 @@
         <v>2</v>
       </c>
       <c r="D1266">
-        <v>9.888262632255513E-05</v>
+        <v>9.888262632255512E-05</v>
       </c>
     </row>
     <row r="1267">
       <c r="B1267" t="inlineStr">
         <is>
-          <t>Ixtacuixtla de Mariano Matamoros</t>
+          <t>Ixtacuixtla De Mariano Matamoros</t>
         </is>
       </c>
       <c r="C1267">
@@ -16998,7 +16998,7 @@
     <row r="1269">
       <c r="B1269" t="inlineStr">
         <is>
-          <t>Muñoz de Domingo Arenas</t>
+          <t>Muñoz De Domingo Arenas</t>
         </is>
       </c>
       <c r="C1269">
@@ -17011,7 +17011,7 @@
     <row r="1270">
       <c r="B1270" t="inlineStr">
         <is>
-          <t>Nanacamilpa de Mariano Arista</t>
+          <t>Nanacamilpa De Mariano Arista</t>
         </is>
       </c>
       <c r="C1270">
@@ -17050,27 +17050,27 @@
     <row r="1273">
       <c r="B1273" t="inlineStr">
         <is>
-          <t>Papalotla de Xicohténcatl</t>
+          <t>Papalotla De Xicohténcatl</t>
         </is>
       </c>
       <c r="C1273">
         <v>2</v>
       </c>
       <c r="D1273">
-        <v>9.888262632255513E-05</v>
+        <v>9.888262632255512E-05</v>
       </c>
     </row>
     <row r="1274">
       <c r="B1274" t="inlineStr">
         <is>
-          <t>San Pablo del Monte</t>
+          <t>San Pablo Del Monte</t>
         </is>
       </c>
       <c r="C1274">
         <v>2</v>
       </c>
       <c r="D1274">
-        <v>9.888262632255513E-05</v>
+        <v>9.888262632255512E-05</v>
       </c>
     </row>
     <row r="1275">
@@ -17096,13 +17096,13 @@
         <v>2</v>
       </c>
       <c r="D1276">
-        <v>9.888262632255513E-05</v>
+        <v>9.888262632255512E-05</v>
       </c>
     </row>
     <row r="1277">
       <c r="B1277" t="inlineStr">
         <is>
-          <t>Tetla de la Solidaridad</t>
+          <t>Tetla De La Solidaridad</t>
         </is>
       </c>
       <c r="C1277">
@@ -17122,7 +17122,7 @@
         <v>2</v>
       </c>
       <c r="D1278">
-        <v>9.888262632255513E-05</v>
+        <v>9.888262632255512E-05</v>
       </c>
     </row>
     <row r="1279">
@@ -17309,20 +17309,20 @@
         <v>2</v>
       </c>
       <c r="D1292">
-        <v>9.888262632255513E-05</v>
+        <v>9.888262632255512E-05</v>
       </c>
     </row>
     <row r="1293">
       <c r="B1293" t="inlineStr">
         <is>
-          <t>Alto Lucero de Gutiérrez Barrios</t>
+          <t>Alto Lucero De Gutiérrez Barrios</t>
         </is>
       </c>
       <c r="C1293">
         <v>2</v>
       </c>
       <c r="D1293">
-        <v>9.888262632255513E-05</v>
+        <v>9.888262632255512E-05</v>
       </c>
     </row>
     <row r="1294">
@@ -17335,7 +17335,7 @@
         <v>2</v>
       </c>
       <c r="D1294">
-        <v>9.888262632255513E-05</v>
+        <v>9.888262632255512E-05</v>
       </c>
     </row>
     <row r="1295">
@@ -17367,7 +17367,7 @@
     <row r="1297">
       <c r="B1297" t="inlineStr">
         <is>
-          <t>Amatlán de los Reyes</t>
+          <t>Amatlán De Los Reyes</t>
         </is>
       </c>
       <c r="C1297">
@@ -17400,7 +17400,7 @@
         <v>2</v>
       </c>
       <c r="D1299">
-        <v>9.888262632255513E-05</v>
+        <v>9.888262632255512E-05</v>
       </c>
     </row>
     <row r="1300">
@@ -17458,7 +17458,7 @@
     <row r="1304">
       <c r="B1304" t="inlineStr">
         <is>
-          <t>Boca del Río</t>
+          <t>Boca Del Río</t>
         </is>
       </c>
       <c r="C1304">
@@ -17471,7 +17471,7 @@
     <row r="1305">
       <c r="B1305" t="inlineStr">
         <is>
-          <t>Castillo de Teayo</t>
+          <t>Castillo De Teayo</t>
         </is>
       </c>
       <c r="C1305">
@@ -17491,7 +17491,7 @@
         <v>2</v>
       </c>
       <c r="D1306">
-        <v>9.888262632255513E-05</v>
+        <v>9.888262632255512E-05</v>
       </c>
     </row>
     <row r="1307">
@@ -17530,7 +17530,7 @@
         <v>2</v>
       </c>
       <c r="D1309">
-        <v>9.888262632255513E-05</v>
+        <v>9.888262632255512E-05</v>
       </c>
     </row>
     <row r="1310">
@@ -17614,7 +17614,7 @@
     <row r="1316">
       <c r="B1316" t="inlineStr">
         <is>
-          <t>Cosamaloapan de Carpio</t>
+          <t>Cosamaloapan De Carpio</t>
         </is>
       </c>
       <c r="C1316">
@@ -17660,7 +17660,7 @@
         <v>2</v>
       </c>
       <c r="D1319">
-        <v>9.888262632255513E-05</v>
+        <v>9.888262632255512E-05</v>
       </c>
     </row>
     <row r="1320">
@@ -17738,7 +17738,7 @@
         <v>2</v>
       </c>
       <c r="D1325">
-        <v>9.888262632255513E-05</v>
+        <v>9.888262632255512E-05</v>
       </c>
     </row>
     <row r="1326">
@@ -17770,7 +17770,7 @@
     <row r="1328">
       <c r="B1328" t="inlineStr">
         <is>
-          <t>Hueyapan de Ocampo</t>
+          <t>Hueyapan De Ocampo</t>
         </is>
       </c>
       <c r="C1328">
@@ -17783,7 +17783,7 @@
     <row r="1329">
       <c r="B1329" t="inlineStr">
         <is>
-          <t>Ignacio de la Llave</t>
+          <t>Ignacio De La Llave</t>
         </is>
       </c>
       <c r="C1329">
@@ -17822,20 +17822,20 @@
     <row r="1332">
       <c r="B1332" t="inlineStr">
         <is>
-          <t>Ixhuatlán de Madero</t>
+          <t>Ixhuatlán De Madero</t>
         </is>
       </c>
       <c r="C1332">
         <v>2</v>
       </c>
       <c r="D1332">
-        <v>9.888262632255513E-05</v>
+        <v>9.888262632255512E-05</v>
       </c>
     </row>
     <row r="1333">
       <c r="B1333" t="inlineStr">
         <is>
-          <t>Ixhuatlán del Café</t>
+          <t>Ixhuatlán Del Café</t>
         </is>
       </c>
       <c r="C1333">
@@ -17848,7 +17848,7 @@
     <row r="1334">
       <c r="B1334" t="inlineStr">
         <is>
-          <t>Ixhuatlán del Sureste</t>
+          <t>Ixhuatlán Del Sureste</t>
         </is>
       </c>
       <c r="C1334">
@@ -17907,7 +17907,7 @@
         <v>2</v>
       </c>
       <c r="D1338">
-        <v>9.888262632255513E-05</v>
+        <v>9.888262632255512E-05</v>
       </c>
     </row>
     <row r="1339">
@@ -17952,14 +17952,14 @@
     <row r="1342">
       <c r="B1342" t="inlineStr">
         <is>
-          <t>Juchique de Ferrer</t>
+          <t>Juchique De Ferrer</t>
         </is>
       </c>
       <c r="C1342">
         <v>2</v>
       </c>
       <c r="D1342">
-        <v>9.888262632255513E-05</v>
+        <v>9.888262632255512E-05</v>
       </c>
     </row>
     <row r="1343">
@@ -17972,7 +17972,7 @@
         <v>2</v>
       </c>
       <c r="D1343">
-        <v>9.888262632255513E-05</v>
+        <v>9.888262632255512E-05</v>
       </c>
     </row>
     <row r="1344">
@@ -18004,14 +18004,14 @@
     <row r="1346">
       <c r="B1346" t="inlineStr">
         <is>
-          <t>Lerdo de Tejada</t>
+          <t>Lerdo De Tejada</t>
         </is>
       </c>
       <c r="C1346">
         <v>2</v>
       </c>
       <c r="D1346">
-        <v>9.888262632255513E-05</v>
+        <v>9.888262632255512E-05</v>
       </c>
     </row>
     <row r="1347">
@@ -18056,7 +18056,7 @@
     <row r="1350">
       <c r="B1350" t="inlineStr">
         <is>
-          <t>Martínez de la Torre</t>
+          <t>Martínez De La Torre</t>
         </is>
       </c>
       <c r="C1350">
@@ -18069,7 +18069,7 @@
     <row r="1351">
       <c r="B1351" t="inlineStr">
         <is>
-          <t>Medellín de Bravo</t>
+          <t>Medellín De Bravo</t>
         </is>
       </c>
       <c r="C1351">
@@ -18121,7 +18121,7 @@
     <row r="1355">
       <c r="B1355" t="inlineStr">
         <is>
-          <t>Nanchital de Lázaro Cárdenas del Río</t>
+          <t>Nanchital De Lázaro Cárdenas Del Río</t>
         </is>
       </c>
       <c r="C1355">
@@ -18167,7 +18167,7 @@
         <v>20</v>
       </c>
       <c r="D1358">
-        <v>0.0009888262632255513</v>
+        <v>0.0009888262632255511</v>
       </c>
     </row>
     <row r="1359">
@@ -18219,13 +18219,13 @@
         <v>2</v>
       </c>
       <c r="D1362">
-        <v>9.888262632255513E-05</v>
+        <v>9.888262632255512E-05</v>
       </c>
     </row>
     <row r="1363">
       <c r="B1363" t="inlineStr">
         <is>
-          <t>Ozuluama de Mascareñas</t>
+          <t>Ozuluama De Mascareñas</t>
         </is>
       </c>
       <c r="C1363">
@@ -18245,7 +18245,7 @@
         <v>2</v>
       </c>
       <c r="D1364">
-        <v>9.888262632255513E-05</v>
+        <v>9.888262632255512E-05</v>
       </c>
     </row>
     <row r="1365">
@@ -18264,7 +18264,7 @@
     <row r="1366">
       <c r="B1366" t="inlineStr">
         <is>
-          <t>Paso de Ovejas</t>
+          <t>Paso De Ovejas</t>
         </is>
       </c>
       <c r="C1366">
@@ -18277,14 +18277,14 @@
     <row r="1367">
       <c r="B1367" t="inlineStr">
         <is>
-          <t>Paso del Macho</t>
+          <t>Paso Del Macho</t>
         </is>
       </c>
       <c r="C1367">
         <v>2</v>
       </c>
       <c r="D1367">
-        <v>9.888262632255513E-05</v>
+        <v>9.888262632255512E-05</v>
       </c>
     </row>
     <row r="1368">
@@ -18329,7 +18329,7 @@
     <row r="1371">
       <c r="B1371" t="inlineStr">
         <is>
-          <t>Poza Rica de Hidalgo</t>
+          <t>Poza Rica De Hidalgo</t>
         </is>
       </c>
       <c r="C1371">
@@ -18375,7 +18375,7 @@
         <v>2</v>
       </c>
       <c r="D1374">
-        <v>9.888262632255513E-05</v>
+        <v>9.888262632255512E-05</v>
       </c>
     </row>
     <row r="1375">
@@ -18388,13 +18388,13 @@
         <v>2</v>
       </c>
       <c r="D1375">
-        <v>9.888262632255513E-05</v>
+        <v>9.888262632255512E-05</v>
       </c>
     </row>
     <row r="1376">
       <c r="B1376" t="inlineStr">
         <is>
-          <t>Sayula de Alemán</t>
+          <t>Sayula De Alemán</t>
         </is>
       </c>
       <c r="C1376">
@@ -18466,7 +18466,7 @@
         <v>2</v>
       </c>
       <c r="D1381">
-        <v>9.888262632255513E-05</v>
+        <v>9.888262632255512E-05</v>
       </c>
     </row>
     <row r="1382">
@@ -18518,7 +18518,7 @@
         <v>2</v>
       </c>
       <c r="D1385">
-        <v>9.888262632255513E-05</v>
+        <v>9.888262632255512E-05</v>
       </c>
     </row>
     <row r="1386">
@@ -18531,7 +18531,7 @@
         <v>2</v>
       </c>
       <c r="D1386">
-        <v>9.888262632255513E-05</v>
+        <v>9.888262632255512E-05</v>
       </c>
     </row>
     <row r="1387">
@@ -18674,7 +18674,7 @@
         <v>2</v>
       </c>
       <c r="D1397">
-        <v>9.888262632255513E-05</v>
+        <v>9.888262632255512E-05</v>
       </c>
     </row>
     <row r="1398">
@@ -18693,7 +18693,7 @@
     <row r="1399">
       <c r="B1399" t="inlineStr">
         <is>
-          <t>Vega de Alatorre</t>
+          <t>Vega De Alatorre</t>
         </is>
       </c>
       <c r="C1399">
@@ -18739,7 +18739,7 @@
         <v>2</v>
       </c>
       <c r="D1402">
-        <v>9.888262632255513E-05</v>
+        <v>9.888262632255512E-05</v>
       </c>
     </row>
     <row r="1403">
@@ -18771,7 +18771,7 @@
     <row r="1405">
       <c r="B1405" t="inlineStr">
         <is>
-          <t>Zontecomatlán de López y Fuentes</t>
+          <t>Zontecomatlán De López Y Fuentes</t>
         </is>
       </c>
       <c r="C1405">
@@ -18848,7 +18848,7 @@
         <v>2</v>
       </c>
       <c r="D1410">
-        <v>9.888262632255513E-05</v>
+        <v>9.888262632255512E-05</v>
       </c>
     </row>
     <row r="1411">
@@ -18926,7 +18926,7 @@
         <v>2</v>
       </c>
       <c r="D1416">
-        <v>9.888262632255513E-05</v>
+        <v>9.888262632255512E-05</v>
       </c>
     </row>
     <row r="1417">
@@ -18939,7 +18939,7 @@
         <v>2</v>
       </c>
       <c r="D1417">
-        <v>9.888262632255513E-05</v>
+        <v>9.888262632255512E-05</v>
       </c>
     </row>
     <row r="1418">
@@ -18965,7 +18965,7 @@
         <v>20</v>
       </c>
       <c r="D1419">
-        <v>0.0009888262632255513</v>
+        <v>0.0009888262632255511</v>
       </c>
     </row>
     <row r="1420">
@@ -19017,7 +19017,7 @@
         <v>2</v>
       </c>
       <c r="D1423">
-        <v>9.888262632255513E-05</v>
+        <v>9.888262632255512E-05</v>
       </c>
     </row>
     <row r="1424">
@@ -19197,7 +19197,7 @@
     <row r="1437">
       <c r="B1437" t="inlineStr">
         <is>
-          <t>Cañitas de Felipe Pescador</t>
+          <t>Cañitas De Felipe Pescador</t>
         </is>
       </c>
       <c r="C1437">
@@ -19217,13 +19217,13 @@
         <v>2</v>
       </c>
       <c r="D1438">
-        <v>9.888262632255513E-05</v>
+        <v>9.888262632255512E-05</v>
       </c>
     </row>
     <row r="1439">
       <c r="B1439" t="inlineStr">
         <is>
-          <t>Concepción del Oro</t>
+          <t>Concepción Del Oro</t>
         </is>
       </c>
       <c r="C1439">
@@ -19249,7 +19249,7 @@
     <row r="1441">
       <c r="B1441" t="inlineStr">
         <is>
-          <t>El Plateado de Joaquín Amaro</t>
+          <t>El Plateado De Joaquín Amaro</t>
         </is>
       </c>
       <c r="C1441">
@@ -19334,7 +19334,7 @@
         <v>19</v>
       </c>
       <c r="D1447">
-        <v>0.0009393849500642737</v>
+        <v>0.0009393849500642736</v>
       </c>
     </row>
     <row r="1448">
@@ -19431,7 +19431,7 @@
     <row r="1455">
       <c r="B1455" t="inlineStr">
         <is>
-          <t>Mezquital del Oro</t>
+          <t>Mezquital Del Oro</t>
         </is>
       </c>
       <c r="C1455">
@@ -19496,7 +19496,7 @@
     <row r="1460">
       <c r="B1460" t="inlineStr">
         <is>
-          <t>Moyahua de Estrada</t>
+          <t>Moyahua De Estrada</t>
         </is>
       </c>
       <c r="C1460">
@@ -19509,7 +19509,7 @@
     <row r="1461">
       <c r="B1461" t="inlineStr">
         <is>
-          <t>Nochistlán de Mejía</t>
+          <t>Nochistlán De Mejía</t>
         </is>
       </c>
       <c r="C1461">
@@ -19652,7 +19652,7 @@
     <row r="1472">
       <c r="B1472" t="inlineStr">
         <is>
-          <t>Teúl de González Ortega</t>
+          <t>Teúl De González Ortega</t>
         </is>
       </c>
       <c r="C1472">
@@ -19665,7 +19665,7 @@
     <row r="1473">
       <c r="B1473" t="inlineStr">
         <is>
-          <t>Tlaltenango de Sánchez Román</t>
+          <t>Tlaltenango De Sánchez Román</t>
         </is>
       </c>
       <c r="C1473">
@@ -19678,7 +19678,7 @@
     <row r="1474">
       <c r="B1474" t="inlineStr">
         <is>
-          <t>Trinidad García de la Cadena</t>
+          <t>Trinidad García De La Cadena</t>
         </is>
       </c>
       <c r="C1474">
@@ -19717,7 +19717,7 @@
     <row r="1477">
       <c r="B1477" t="inlineStr">
         <is>
-          <t>Villa de Cos</t>
+          <t>Villa De Cos</t>
         </is>
       </c>
       <c r="C1477">
@@ -19816,41 +19816,6 @@
       </c>
       <c r="D1484">
         <v>1</v>
-      </c>
-    </row>
-    <row r="1486">
-      <c r="A1486" t="inlineStr">
-        <is>
-          <t>Tamaño de la muestra: 1,114,005</t>
-        </is>
-      </c>
-    </row>
-    <row r="1487">
-      <c r="A1487" t="inlineStr">
-        <is>
-          <t>Fuente: Expedición de Matrículas Consulares de Alta Seguridad en los Consulados de México en E.E.U.U.</t>
-        </is>
-      </c>
-    </row>
-    <row r="1488">
-      <c r="A1488" t="inlineStr">
-        <is>
-          <t>Elaborado por: Análisis de Información, Instituto de los Mexicanos en el Exterior</t>
-        </is>
-      </c>
-    </row>
-    <row r="1489">
-      <c r="A1489" t="inlineStr">
-        <is>
-          <t>Secretaría de Relaciones Exteriores</t>
-        </is>
-      </c>
-    </row>
-    <row r="1490">
-      <c r="A1490" t="inlineStr">
-        <is>
-          <t>Junio de 2016</t>
-        </is>
       </c>
     </row>
   </sheetData>
